--- a/MergedDataFrame.xlsx
+++ b/MergedDataFrame.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>1136</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2355493009090424</v>
+        <v>0.0004206237516232899</v>
       </c>
       <c r="F12" t="n">
-        <v>-146.7184448242188</v>
+        <v>-0.2619972229003906</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>1253</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6904544830322266</v>
+        <v>0.001232954433986119</v>
       </c>
       <c r="F13" t="n">
-        <v>-141.4873962402344</v>
+        <v>-0.2526560647147043</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>1369</v>
       </c>
       <c r="E14" t="n">
-        <v>1.272416949272156</v>
+        <v>0.002272173123700278</v>
       </c>
       <c r="F14" t="n">
-        <v>-136.2653503417969</v>
+        <v>-0.2433309827532087</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>1470</v>
       </c>
       <c r="E15" t="n">
-        <v>1.873534679412842</v>
+        <v>0.003345597641808646</v>
       </c>
       <c r="F15" t="n">
-        <v>-131.8101501464844</v>
+        <v>-0.2353752681187221</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>1587</v>
       </c>
       <c r="E16" t="n">
-        <v>2.630297660827637</v>
+        <v>0.00469696010862078</v>
       </c>
       <c r="F16" t="n">
-        <v>-126.61865234375</v>
+        <v>-0.226104736328125</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>1703</v>
       </c>
       <c r="E17" t="n">
-        <v>3.285996675491333</v>
+        <v>0.005867851206234523</v>
       </c>
       <c r="F17" t="n">
-        <v>-121.4083251953125</v>
+        <v>-0.2168005807059152</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>1804</v>
       </c>
       <c r="E18" t="n">
-        <v>3.660807132720947</v>
+        <v>0.006537155594144549</v>
       </c>
       <c r="F18" t="n">
-        <v>-116.9252471923828</v>
+        <v>-0.2087950842721122</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>1921</v>
       </c>
       <c r="E19" t="n">
-        <v>3.842251062393188</v>
+        <v>0.006861162611416408</v>
       </c>
       <c r="F19" t="n">
-        <v>-111.6772537231445</v>
+        <v>-0.1994236673627581</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>2037</v>
       </c>
       <c r="E20" t="n">
-        <v>3.779688835144043</v>
+        <v>0.006749444348471505</v>
       </c>
       <c r="F20" t="n">
-        <v>-106.4258880615234</v>
+        <v>-0.1900462286812918</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>2138</v>
       </c>
       <c r="E21" t="n">
-        <v>3.598023653030396</v>
+        <v>0.006425042237554278</v>
       </c>
       <c r="F21" t="n">
-        <v>-101.9344711303711</v>
+        <v>-0.1820258413042341</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>2255</v>
       </c>
       <c r="E22" t="n">
-        <v>3.346625089645386</v>
+        <v>0.005976116231509617</v>
       </c>
       <c r="F22" t="n">
-        <v>-96.68723297119141</v>
+        <v>-0.1726557731628418</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>2371</v>
       </c>
       <c r="E23" t="n">
-        <v>3.094439029693604</v>
+        <v>0.005525783981595721</v>
       </c>
       <c r="F23" t="n">
-        <v>-91.44058227539062</v>
+        <v>-0.1632867540631975</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1127,10 +1127,10 @@
         <v>2472</v>
       </c>
       <c r="E24" t="n">
-        <v>2.879093170166016</v>
+        <v>0.005141237803867885</v>
       </c>
       <c r="F24" t="n">
-        <v>-86.94748687744141</v>
+        <v>-0.1552633694240025</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>2589</v>
       </c>
       <c r="E25" t="n">
-        <v>2.62807559967041</v>
+        <v>0.004692992142268589</v>
       </c>
       <c r="F25" t="n">
-        <v>-81.70257568359375</v>
+        <v>-0.145897456577846</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1185,10 +1185,10 @@
         <v>2705</v>
       </c>
       <c r="E26" t="n">
-        <v>2.377169847488403</v>
+        <v>0.004244946156229292</v>
       </c>
       <c r="F26" t="n">
-        <v>-76.45999908447266</v>
+        <v>-0.136535712650844</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>2806</v>
       </c>
       <c r="E27" t="n">
-        <v>2.162022113800049</v>
+        <v>0.003860753774642944</v>
       </c>
       <c r="F27" t="n">
-        <v>-71.96456909179688</v>
+        <v>-0.1285081590924944</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>2923</v>
       </c>
       <c r="E28" t="n">
-        <v>1.910861372947693</v>
+        <v>0.003412252451692309</v>
       </c>
       <c r="F28" t="n">
-        <v>-66.71665954589844</v>
+        <v>-0.1191368920462472</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>3039</v>
       </c>
       <c r="E29" t="n">
-        <v>1.659910440444946</v>
+        <v>0.002964125786508833</v>
       </c>
       <c r="F29" t="n">
-        <v>-61.4731330871582</v>
+        <v>-0.1097734519413539</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>3140</v>
       </c>
       <c r="E30" t="n">
-        <v>1.445162296295166</v>
+        <v>0.002580646957669939</v>
       </c>
       <c r="F30" t="n">
-        <v>-56.98605346679688</v>
+        <v>-0.1017608097621373</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>3257</v>
       </c>
       <c r="E31" t="n">
-        <v>1.194045543670654</v>
+        <v>0.002132224185126169</v>
       </c>
       <c r="F31" t="n">
-        <v>-51.73907089233398</v>
+        <v>-0.09239119802202497</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1359,10 +1359,10 @@
         <v>3373</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9432004690170288</v>
+        <v>0.001684286551816123</v>
       </c>
       <c r="F32" t="n">
-        <v>-46.49776458740234</v>
+        <v>-0.08303172247750419</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>3474</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7277718782424927</v>
+        <v>0.001299592639718737</v>
       </c>
       <c r="F33" t="n">
-        <v>-41.9964714050293</v>
+        <v>-0.07499369893755231</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>3591</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4770089089870453</v>
+        <v>0.0008518016231911523</v>
       </c>
       <c r="F34" t="n">
-        <v>-36.75687789916992</v>
+        <v>-0.06563728196280343</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         <v>3707</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2259261906147003</v>
+        <v>0.0004034396260976791</v>
       </c>
       <c r="F35" t="n">
-        <v>-31.51059722900391</v>
+        <v>-0.05626892362322126</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         <v>3808</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01083757728338242</v>
+        <v>1.93528165774686e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>-27.01640510559082</v>
+        <v>-0.04824358054569789</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>3925</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2400888949632645</v>
+        <v>-0.000428730169577258</v>
       </c>
       <c r="F37" t="n">
-        <v>-21.77339172363281</v>
+        <v>-0.0388810566493443</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>4041</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.4913137853145599</v>
+        <v>-0.0008773460452045713</v>
       </c>
       <c r="F38" t="n">
-        <v>-16.52414512634277</v>
+        <v>-0.02950740201132638</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1562,10 +1562,10 @@
         <v>4142</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.7062457799911499</v>
+        <v>-0.001261153178555625</v>
       </c>
       <c r="F39" t="n">
-        <v>-12.03322505950928</v>
+        <v>-0.02148790189198085</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>4259</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.9572935700416565</v>
+        <v>-0.001709452803645815</v>
       </c>
       <c r="F40" t="n">
-        <v>-6.787679195404053</v>
+        <v>-0.01212085570607867</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>4375</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.208092927932739</v>
+        <v>-0.002157308799879892</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.54732358455658</v>
+        <v>-0.002763077829565321</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>4476</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.423266053199768</v>
+        <v>-0.002541546523571014</v>
       </c>
       <c r="F42" t="n">
-        <v>2.94863486289978</v>
+        <v>0.005265419398035322</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>4592</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.674409747123718</v>
+        <v>-0.002990017405578068</v>
       </c>
       <c r="F43" t="n">
-        <v>8.196183204650879</v>
+        <v>0.01463604143687657</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>4693</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.889624357223511</v>
+        <v>-0.003374329209327698</v>
       </c>
       <c r="F44" t="n">
-        <v>12.6930103302002</v>
+        <v>0.02266608987535749</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>4810</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.140346527099609</v>
+        <v>-0.003822047369820731</v>
       </c>
       <c r="F45" t="n">
-        <v>17.9317512512207</v>
+        <v>0.03202098437717982</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>4926</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.391250610351562</v>
+        <v>-0.00427009037562779</v>
       </c>
       <c r="F46" t="n">
-        <v>23.1742992401123</v>
+        <v>0.04138267721448626</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>5027</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.606371164321899</v>
+        <v>-0.004654234222003392</v>
       </c>
       <c r="F47" t="n">
-        <v>27.66915321350098</v>
+        <v>0.04940920216696603</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -1823,10 +1823,10 @@
         <v>5144</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.857628107070923</v>
+        <v>-0.00510290733405522</v>
       </c>
       <c r="F48" t="n">
-        <v>32.9190673828125</v>
+        <v>0.05878404889787946</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>5260</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.108606576919556</v>
+        <v>-0.005551083173070635</v>
       </c>
       <c r="F49" t="n">
-        <v>38.16316223144531</v>
+        <v>0.06814850398472377</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -1881,10 +1881,10 @@
         <v>5361</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.323614835739136</v>
+        <v>-0.005935026492391314</v>
       </c>
       <c r="F50" t="n">
-        <v>42.65567398071289</v>
+        <v>0.07617084639413016</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>5478</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.574586391448975</v>
+        <v>-0.006383189984730312</v>
       </c>
       <c r="F51" t="n">
-        <v>47.89963150024414</v>
+        <v>0.08553505625043596</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>5594</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.825607776641846</v>
+        <v>-0.00683144245828901</v>
       </c>
       <c r="F52" t="n">
-        <v>53.14462661743164</v>
+        <v>0.09490111895969935</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>5695</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.040834426879883</v>
+        <v>-0.007215775762285505</v>
       </c>
       <c r="F53" t="n">
-        <v>57.64170837402344</v>
+        <v>0.1029316220964704</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>5812</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.29163122177124</v>
+        <v>-0.007663627181734358</v>
       </c>
       <c r="F54" t="n">
-        <v>62.88199615478516</v>
+        <v>0.1122892788478306</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>5928</v>
       </c>
       <c r="E55" t="n">
-        <v>-4.542463302612305</v>
+        <v>-0.008111541611807688</v>
       </c>
       <c r="F55" t="n">
-        <v>68.12303924560547</v>
+        <v>0.1216482843671526</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>6029</v>
       </c>
       <c r="E56" t="n">
-        <v>-4.757776260375977</v>
+        <v>-0.008496029036385673</v>
       </c>
       <c r="F56" t="n">
-        <v>72.62191772460938</v>
+        <v>0.1296819959368025</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>6146</v>
       </c>
       <c r="E57" t="n">
-        <v>-5.009040832519531</v>
+        <v>-0.008944715772356306</v>
       </c>
       <c r="F57" t="n">
-        <v>77.87197875976562</v>
+        <v>0.1390571049281529</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         <v>6262</v>
       </c>
       <c r="E58" t="n">
-        <v>-5.260179996490479</v>
+        <v>-0.009393178565161569</v>
       </c>
       <c r="F58" t="n">
-        <v>83.11943054199219</v>
+        <v>0.1484275545392718</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -2142,10 +2142,10 @@
         <v>6363</v>
       </c>
       <c r="E59" t="n">
-        <v>-5.475106239318848</v>
+        <v>-0.009776975427355086</v>
       </c>
       <c r="F59" t="n">
-        <v>87.61023712158203</v>
+        <v>0.156446852002825</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>6480</v>
       </c>
       <c r="E60" t="n">
-        <v>-5.725996494293213</v>
+        <v>-0.01022499373980931</v>
       </c>
       <c r="F60" t="n">
-        <v>92.85248565673828</v>
+        <v>0.1658080101013183</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2200,10 +2200,10 @@
         <v>6596</v>
       </c>
       <c r="E61" t="n">
-        <v>-5.97659969329834</v>
+        <v>-0.01067249945231846</v>
       </c>
       <c r="F61" t="n">
-        <v>98.09767150878906</v>
+        <v>0.1751744134085519</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>6697</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.167211532592773</v>
+        <v>-0.01101287773677281</v>
       </c>
       <c r="F62" t="n">
-        <v>102.5914535522461</v>
+        <v>0.1831990242004395</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -2258,10 +2258,10 @@
         <v>6814</v>
       </c>
       <c r="E63" t="n">
-        <v>-6.300150871276855</v>
+        <v>-0.01125026941299439</v>
       </c>
       <c r="F63" t="n">
-        <v>107.8454132080078</v>
+        <v>0.1925810950142997</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>6930</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.295651435852051</v>
+        <v>-0.01124223470687866</v>
       </c>
       <c r="F64" t="n">
-        <v>113.0914154052734</v>
+        <v>0.2019489560808454</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -2316,10 +2316,10 @@
         <v>7031</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.178547382354736</v>
+        <v>-0.01103312032563346</v>
       </c>
       <c r="F65" t="n">
-        <v>117.5946197509766</v>
+        <v>0.2099903924124581</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>7148</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.950691699981689</v>
+        <v>-0.01062623517853873</v>
       </c>
       <c r="F66" t="n">
-        <v>122.8321228027344</v>
+        <v>0.2193430764334542</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>7264</v>
       </c>
       <c r="E67" t="n">
-        <v>-5.621645927429199</v>
+        <v>-0.01003865344183786</v>
       </c>
       <c r="F67" t="n">
-        <v>128.8199005126953</v>
+        <v>0.230035536629813</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>7365</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.336833477020264</v>
+        <v>-0.009530059780393329</v>
       </c>
       <c r="F68" t="n">
-        <v>133.3130187988281</v>
+        <v>0.2380589621407645</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>7482</v>
       </c>
       <c r="E69" t="n">
-        <v>-4.964039325714111</v>
+        <v>-0.008864355938775199</v>
       </c>
       <c r="F69" t="n">
-        <v>138.5572967529297</v>
+        <v>0.2474237442016602</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>7598</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.548584938049316</v>
+        <v>-0.008122473103659494</v>
       </c>
       <c r="F70" t="n">
-        <v>143.7916717529297</v>
+        <v>0.2567708424159459</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>7699</v>
       </c>
       <c r="E71" t="n">
-        <v>-4.158263683319092</v>
+        <v>-0.007425470863069807</v>
       </c>
       <c r="F71" t="n">
-        <v>148.2747650146484</v>
+        <v>0.2647763660975865</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -2519,10 +2519,10 @@
         <v>7816</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.66867995262146</v>
+        <v>-0.00655121420110975</v>
       </c>
       <c r="F72" t="n">
-        <v>153.4940490722656</v>
+        <v>0.2740965162004743</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>7932</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.166048765182495</v>
+        <v>-0.005653658509254455</v>
       </c>
       <c r="F73" t="n">
-        <v>158.7201538085938</v>
+        <v>0.2834288460867745</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>8033</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.734868288040161</v>
+        <v>-0.004883693371500288</v>
       </c>
       <c r="F74" t="n">
-        <v>163.2030029296875</v>
+        <v>0.2914339338030134</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>8150</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.232661724090576</v>
+        <v>-0.003986895935876029</v>
       </c>
       <c r="F75" t="n">
-        <v>168.4242858886719</v>
+        <v>0.3007576533726283</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -2635,10 +2635,10 @@
         <v>8266</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.72961699962616</v>
+        <v>-0.003088601785046714</v>
       </c>
       <c r="F76" t="n">
-        <v>173.6542816162109</v>
+        <v>0.3100969314575195</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -2664,10 +2664,10 @@
         <v>8367</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.298932433128357</v>
+        <v>-0.002319522202014923</v>
       </c>
       <c r="F77" t="n">
-        <v>178.1335296630859</v>
+        <v>0.3180955886840821</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>8484</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8238667249679565</v>
+        <v>-0.001471190580299922</v>
       </c>
       <c r="F78" t="n">
-        <v>183.3620300292969</v>
+        <v>0.3274321964808873</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>8600</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4767082333564758</v>
+        <v>-0.0008512647024222782</v>
       </c>
       <c r="F79" t="n">
-        <v>188.5979156494141</v>
+        <v>0.3367819922310966</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>8701</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3453456461429596</v>
+        <v>-0.0006166886538267136</v>
       </c>
       <c r="F80" t="n">
-        <v>193.0938415527344</v>
+        <v>0.3448104313441685</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>8818</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2778601050376892</v>
+        <v>-0.0004961787589958735</v>
       </c>
       <c r="F81" t="n">
-        <v>198.3444366455078</v>
+        <v>0.3541864940098354</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>8934</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2756835222244263</v>
+        <v>-0.0004922920039721897</v>
       </c>
       <c r="F82" t="n">
-        <v>203.5931243896484</v>
+        <v>0.3635591506958008</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>9035</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3028653860092163</v>
+        <v>-0.0005408310464450291</v>
       </c>
       <c r="F83" t="n">
-        <v>208.0963439941406</v>
+        <v>0.3716006142752511</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -2867,10 +2867,10 @@
         <v>9152</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.3616516590118408</v>
+        <v>-0.0006458065339497158</v>
       </c>
       <c r="F84" t="n">
-        <v>213.3451080322266</v>
+        <v>0.3809734072004046</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -2896,10 +2896,10 @@
         <v>9268</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.4493520855903625</v>
+        <v>-0.0008024144385542189</v>
       </c>
       <c r="F85" t="n">
-        <v>218.5942535400391</v>
+        <v>0.3903468813214983</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>9369</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.5473511219024658</v>
+        <v>-0.0009774127176829747</v>
       </c>
       <c r="F86" t="n">
-        <v>223.0910949707031</v>
+        <v>0.398376955304827</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -2954,10 +2954,10 @@
         <v>9486</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.685839056968689</v>
+        <v>-0.001224712601729802</v>
       </c>
       <c r="F87" t="n">
-        <v>228.3407287597656</v>
+        <v>0.4077513013567243</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>9602</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.8450621962547302</v>
+        <v>-0.001509039636169161</v>
       </c>
       <c r="F88" t="n">
-        <v>233.5906219482422</v>
+        <v>0.4171261106218611</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>9703</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.9952046871185303</v>
+        <v>-0.001777151226997376</v>
       </c>
       <c r="F89" t="n">
-        <v>238.0938415527344</v>
+        <v>0.4251675742013114</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>9820</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.182055592536926</v>
+        <v>-0.002110813558101654</v>
       </c>
       <c r="F90" t="n">
-        <v>243.332275390625</v>
+        <v>0.4345219203404018</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>9936</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.380746841430664</v>
+        <v>-0.002465619359697614</v>
       </c>
       <c r="F91" t="n">
-        <v>248.5814056396484</v>
+        <v>0.4438953672136579</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>10037</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.559493541717529</v>
+        <v>-0.00278480989592416</v>
       </c>
       <c r="F92" t="n">
-        <v>253.0797271728516</v>
+        <v>0.4519280842372349</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>10154</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.777817487716675</v>
+        <v>-0.003174674085208348</v>
       </c>
       <c r="F93" t="n">
-        <v>258.3254089355469</v>
+        <v>0.4612953730991908</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>10270</v>
       </c>
       <c r="E94" t="n">
-        <v>-2.006554365158081</v>
+        <v>-0.003583132794925145</v>
       </c>
       <c r="F94" t="n">
-        <v>263.5660400390625</v>
+        <v>0.4706536429268973</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>10371</v>
       </c>
       <c r="E95" t="n">
-        <v>-2.210715532302856</v>
+        <v>-0.003947706307683672</v>
       </c>
       <c r="F95" t="n">
-        <v>268.0589904785156</v>
+        <v>0.4786767687116351</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
@@ -3215,10 +3215,10 @@
         <v>10488</v>
       </c>
       <c r="E96" t="n">
-        <v>-2.456378698348999</v>
+        <v>-0.00438639053276607</v>
       </c>
       <c r="F96" t="n">
-        <v>273.3072509765625</v>
+        <v>0.4880486624581473</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>10604</v>
       </c>
       <c r="E97" t="n">
-        <v>-2.708051919937134</v>
+        <v>-0.004835806999887739</v>
       </c>
       <c r="F97" t="n">
-        <v>278.5535888671875</v>
+        <v>0.4974171229771205</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
@@ -3273,10 +3273,10 @@
         <v>10705</v>
       </c>
       <c r="E98" t="n">
-        <v>-2.896165609359741</v>
+        <v>-0.005171724302428109</v>
       </c>
       <c r="F98" t="n">
-        <v>279.9850158691406</v>
+        <v>0.4999732426234654</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
@@ -3302,10 +3302,10 @@
         <v>10822</v>
       </c>
       <c r="E99" t="n">
-        <v>-3.09919548034668</v>
+        <v>-0.005534277643476214</v>
       </c>
       <c r="F99" t="n">
-        <v>279.9828491210938</v>
+        <v>0.4999693734305246</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>10938</v>
       </c>
       <c r="E100" t="n">
-        <v>-3.301134824752808</v>
+        <v>-0.005894883615630013</v>
       </c>
       <c r="F100" t="n">
-        <v>279.9805603027344</v>
+        <v>0.4999652862548828</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>11039</v>
       </c>
       <c r="E101" t="n">
-        <v>-3.471745252609253</v>
+        <v>-0.006199545093945095</v>
       </c>
       <c r="F101" t="n">
-        <v>279.9784851074219</v>
+        <v>0.4999615805489676</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>11156</v>
       </c>
       <c r="E102" t="n">
-        <v>-3.667336702346802</v>
+        <v>-0.006548815539905003</v>
       </c>
       <c r="F102" t="n">
-        <v>279.9759826660156</v>
+        <v>0.4999571119035993</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>11272</v>
       </c>
       <c r="E103" t="n">
-        <v>-3.814065933227539</v>
+        <v>-0.006810832023620606</v>
       </c>
       <c r="F103" t="n">
-        <v>279.9740295410156</v>
+        <v>0.499953624180385</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
@@ -3447,10 +3447,10 @@
         <v>11373</v>
       </c>
       <c r="E104" t="n">
-        <v>-3.764551162719727</v>
+        <v>-0.00672241279057094</v>
       </c>
       <c r="F104" t="n">
-        <v>279.9747009277344</v>
+        <v>0.49995482308524</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -3476,10 +3476,10 @@
         <v>11490</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.421566486358643</v>
+        <v>-0.006109940154211861</v>
       </c>
       <c r="F105" t="n">
-        <v>279.9790954589844</v>
+        <v>0.4999626704624721</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>11606</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.771342277526855</v>
+        <v>-0.004948825495583671</v>
       </c>
       <c r="F106" t="n">
-        <v>279.9862976074219</v>
+        <v>0.4999755314418248</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -3534,10 +3534,10 @@
         <v>11707</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.961605310440063</v>
+        <v>-0.003502866625785828</v>
       </c>
       <c r="F107" t="n">
-        <v>279.9931030273438</v>
+        <v>0.4999876839773996</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>11824</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5164052248001099</v>
+        <v>-0.0009221521871430533</v>
       </c>
       <c r="F108" t="n">
-        <v>279.99951171875</v>
+        <v>0.4999991280691964</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>11940</v>
       </c>
       <c r="E109" t="n">
-        <v>1.608520984649658</v>
+        <v>0.002872358901160104</v>
       </c>
       <c r="F109" t="n">
-        <v>279.9953918457031</v>
+        <v>0.4999917711530413</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
@@ -3621,10 +3621,10 @@
         <v>12041</v>
       </c>
       <c r="E110" t="n">
-        <v>3.89788556098938</v>
+        <v>0.006960509930338178</v>
       </c>
       <c r="F110" t="n">
-        <v>279.9728698730469</v>
+        <v>0.4999515533447266</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>12158</v>
       </c>
       <c r="E111" t="n">
-        <v>6.908278942108154</v>
+        <v>0.0123362123966217</v>
       </c>
       <c r="F111" t="n">
-        <v>279.9147644042969</v>
+        <v>0.4998477935791016</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
@@ -3679,10 +3679,10 @@
         <v>12274</v>
       </c>
       <c r="E112" t="n">
-        <v>10.11191272735596</v>
+        <v>0.01805698701313564</v>
       </c>
       <c r="F112" t="n">
-        <v>279.8173828125</v>
+        <v>0.4996738978794643</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>12375</v>
       </c>
       <c r="E113" t="n">
-        <v>12.8517370223999</v>
+        <v>0.02294953039714268</v>
       </c>
       <c r="F113" t="n">
-        <v>279.7049255371094</v>
+        <v>0.4994730813162667</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>12492</v>
       </c>
       <c r="E114" t="n">
-        <v>16.00563621520996</v>
+        <v>0.02858149324144636</v>
       </c>
       <c r="F114" t="n">
-        <v>279.5421447753906</v>
+        <v>0.4991824013846261</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>12608</v>
       </c>
       <c r="E115" t="n">
-        <v>19.31332969665527</v>
+        <v>0.03448808874402728</v>
       </c>
       <c r="F115" t="n">
-        <v>279.3331298828125</v>
+        <v>0.4988091605050223</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
@@ -3795,10 +3795,10 @@
         <v>12709</v>
       </c>
       <c r="E116" t="n">
-        <v>22.39969062805176</v>
+        <v>0.03999944755009242</v>
       </c>
       <c r="F116" t="n">
-        <v>279.1025695800781</v>
+        <v>0.4983974456787109</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
@@ -3824,10 +3824,10 @@
         <v>12825</v>
       </c>
       <c r="E117" t="n">
-        <v>26.12686347961426</v>
+        <v>0.04665511335645403</v>
       </c>
       <c r="F117" t="n">
-        <v>278.7783813476562</v>
+        <v>0.4978185381208147</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>12926</v>
       </c>
       <c r="E118" t="n">
-        <v>29.27565383911133</v>
+        <v>0.05227795328412737</v>
       </c>
       <c r="F118" t="n">
-        <v>278.46533203125</v>
+        <v>0.497259521484375</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>13043</v>
       </c>
       <c r="E119" t="n">
-        <v>32.9033203125</v>
+        <v>0.05875592912946428</v>
       </c>
       <c r="F119" t="n">
-        <v>278.0600280761719</v>
+        <v>0.4965357644217355</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -3911,10 +3911,10 @@
         <v>13159</v>
       </c>
       <c r="E120" t="n">
-        <v>36.47662734985352</v>
+        <v>0.06513683455330985</v>
       </c>
       <c r="F120" t="n">
-        <v>277.6138610839844</v>
+        <v>0.4957390376499721</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>13260</v>
       </c>
       <c r="E121" t="n">
-        <v>39.57865142822266</v>
+        <v>0.07067616326468332</v>
       </c>
       <c r="F121" t="n">
-        <v>277.1886291503906</v>
+        <v>0.4949796949114118</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
@@ -3969,10 +3969,10 @@
         <v>13377</v>
       </c>
       <c r="E122" t="n">
-        <v>43.44416427612305</v>
+        <v>0.07757886477879115</v>
       </c>
       <c r="F122" t="n">
-        <v>276.6091003417969</v>
+        <v>0.493944822038923</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -3998,10 +3998,10 @@
         <v>13493</v>
       </c>
       <c r="E123" t="n">
-        <v>47.35479354858398</v>
+        <v>0.08456213133675712</v>
       </c>
       <c r="F123" t="n">
-        <v>275.9665222167969</v>
+        <v>0.492797361101423</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>13594</v>
       </c>
       <c r="E124" t="n">
-        <v>50.66604995727539</v>
+        <v>0.09047508920942034</v>
       </c>
       <c r="F124" t="n">
-        <v>275.3778076171875</v>
+        <v>0.4917460850306919</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>13711</v>
       </c>
       <c r="E125" t="n">
-        <v>54.47460174560547</v>
+        <v>0.09727607454572405</v>
       </c>
       <c r="F125" t="n">
-        <v>274.6498107910156</v>
+        <v>0.4904460906982422</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>13827</v>
       </c>
       <c r="E126" t="n">
-        <v>58.22190475463867</v>
+        <v>0.1039676870618548</v>
       </c>
       <c r="F126" t="n">
-        <v>273.8799133300781</v>
+        <v>0.489071273803711</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
@@ -4114,10 +4114,10 @@
         <v>13928</v>
       </c>
       <c r="E127" t="n">
-        <v>61.46873092651367</v>
+        <v>0.109765590940203</v>
       </c>
       <c r="F127" t="n">
-        <v>273.1695251464844</v>
+        <v>0.487802723475865</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>14045</v>
       </c>
       <c r="E128" t="n">
-        <v>65.47718811035156</v>
+        <v>0.1169235501970564</v>
       </c>
       <c r="F128" t="n">
-        <v>272.2365417480469</v>
+        <v>0.4861366816929408</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -4172,10 +4172,10 @@
         <v>14161</v>
       </c>
       <c r="E129" t="n">
-        <v>69.55376434326172</v>
+        <v>0.1242031506129674</v>
       </c>
       <c r="F129" t="n">
-        <v>271.2236633300781</v>
+        <v>0.4843279702322824</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
@@ -4201,10 +4201,10 @@
         <v>14262</v>
       </c>
       <c r="E130" t="n">
-        <v>72.99874877929688</v>
+        <v>0.1303549085344587</v>
       </c>
       <c r="F130" t="n">
-        <v>270.3168334960938</v>
+        <v>0.4827086312430245</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
@@ -4230,10 +4230,10 @@
         <v>14379</v>
       </c>
       <c r="E131" t="n">
-        <v>76.98318481445312</v>
+        <v>0.137469972882952</v>
       </c>
       <c r="F131" t="n">
-        <v>269.2091979980469</v>
+        <v>0.480730710710798</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>14495</v>
       </c>
       <c r="E132" t="n">
-        <v>81.12709808349609</v>
+        <v>0.144869818006243</v>
       </c>
       <c r="F132" t="n">
-        <v>267.9895324707031</v>
+        <v>0.478552736554827</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
@@ -4288,10 +4288,10 @@
         <v>14596</v>
       </c>
       <c r="E133" t="n">
-        <v>84.82677459716797</v>
+        <v>0.1514763832092285</v>
       </c>
       <c r="F133" t="n">
-        <v>266.841552734375</v>
+        <v>0.4765027727399553</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
@@ -4317,10 +4317,10 @@
         <v>14713</v>
       </c>
       <c r="E134" t="n">
-        <v>89.15586090087891</v>
+        <v>0.1592068944658552</v>
       </c>
       <c r="F134" t="n">
-        <v>265.426513671875</v>
+        <v>0.4739759172712054</v>
       </c>
       <c r="G134" t="b">
         <v>0</v>
@@ -4346,10 +4346,10 @@
         <v>14829</v>
       </c>
       <c r="E135" t="n">
-        <v>93.41754913330078</v>
+        <v>0.1668170520237514</v>
       </c>
       <c r="F135" t="n">
-        <v>263.9567565917969</v>
+        <v>0.4713513510567801</v>
       </c>
       <c r="G135" t="b">
         <v>0</v>
@@ -4375,10 +4375,10 @@
         <v>14930</v>
       </c>
       <c r="E136" t="n">
-        <v>97.0177001953125</v>
+        <v>0.1732458932059152</v>
       </c>
       <c r="F136" t="n">
-        <v>262.6548461914062</v>
+        <v>0.4690265110560826</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>15047</v>
       </c>
       <c r="E137" t="n">
-        <v>101.2443237304688</v>
+        <v>0.1807934352329799</v>
       </c>
       <c r="F137" t="n">
-        <v>261.0547485351562</v>
+        <v>0.466169193812779</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
@@ -4433,10 +4433,10 @@
         <v>15163</v>
       </c>
       <c r="E138" t="n">
-        <v>105.6128692626953</v>
+        <v>0.1885944093976702</v>
       </c>
       <c r="F138" t="n">
-        <v>259.3181762695312</v>
+        <v>0.4630681719098773</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
@@ -4462,10 +4462,10 @@
         <v>15264</v>
       </c>
       <c r="E139" t="n">
-        <v>109.3650970458984</v>
+        <v>0.1952948161533901</v>
       </c>
       <c r="F139" t="n">
-        <v>257.7581787109375</v>
+        <v>0.4602824619838169</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
@@ -4491,10 +4491,10 @@
         <v>15381</v>
       </c>
       <c r="E140" t="n">
-        <v>113.6775817871094</v>
+        <v>0.2029956817626953</v>
       </c>
       <c r="F140" t="n">
-        <v>255.8855285644531</v>
+        <v>0.4569384438650949</v>
       </c>
       <c r="G140" t="b">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>15497</v>
       </c>
       <c r="E141" t="n">
-        <v>117.9250259399414</v>
+        <v>0.2105804034641811</v>
       </c>
       <c r="F141" t="n">
-        <v>253.9560394287109</v>
+        <v>0.4534929275512695</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
@@ -4549,10 +4549,10 @@
         <v>15598</v>
       </c>
       <c r="E142" t="n">
-        <v>121.5132293701172</v>
+        <v>0.216987909589495</v>
       </c>
       <c r="F142" t="n">
-        <v>252.2588653564453</v>
+        <v>0.4504622595650809</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
@@ -4578,10 +4578,10 @@
         <v>15715</v>
       </c>
       <c r="E143" t="n">
-        <v>126.2138214111328</v>
+        <v>0.2253818239484514</v>
       </c>
       <c r="F143" t="n">
-        <v>249.9401397705078</v>
+        <v>0.4463216781616211</v>
       </c>
       <c r="G143" t="b">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>15831</v>
       </c>
       <c r="E144" t="n">
-        <v>130.2532653808594</v>
+        <v>0.2325951167515346</v>
       </c>
       <c r="F144" t="n">
-        <v>247.8590240478516</v>
+        <v>0.4426054000854492</v>
       </c>
       <c r="G144" t="b">
         <v>0</v>
@@ -4636,10 +4636,10 @@
         <v>15932</v>
       </c>
       <c r="E145" t="n">
-        <v>133.0917053222656</v>
+        <v>0.2376637595040458</v>
       </c>
       <c r="F145" t="n">
-        <v>246.3464965820312</v>
+        <v>0.4399044581821986</v>
       </c>
       <c r="G145" t="b">
         <v>0</v>
@@ -4665,10 +4665,10 @@
         <v>16049</v>
       </c>
       <c r="E146" t="n">
-        <v>137.5558319091797</v>
+        <v>0.2456354141235352</v>
       </c>
       <c r="F146" t="n">
-        <v>243.8819274902344</v>
+        <v>0.4355034419468471</v>
       </c>
       <c r="G146" t="b">
         <v>0</v>
@@ -4694,10 +4694,10 @@
         <v>16165</v>
       </c>
       <c r="E147" t="n">
-        <v>141.3556671142578</v>
+        <v>0.2524208341326032</v>
       </c>
       <c r="F147" t="n">
-        <v>241.6993408203125</v>
+        <v>0.431605965750558</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
@@ -4723,10 +4723,10 @@
         <v>16266</v>
       </c>
       <c r="E148" t="n">
-        <v>144.5271453857422</v>
+        <v>0.2580841881888253</v>
       </c>
       <c r="F148" t="n">
-        <v>239.81640625</v>
+        <v>0.4282435825892857</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
@@ -4752,10 +4752,10 @@
         <v>16383</v>
       </c>
       <c r="E149" t="n">
-        <v>148.1297302246094</v>
+        <v>0.2645173754010882</v>
       </c>
       <c r="F149" t="n">
-        <v>237.6080627441406</v>
+        <v>0.4243001120431082</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
@@ -4781,10 +4781,10 @@
         <v>16499</v>
       </c>
       <c r="E150" t="n">
-        <v>151.6164703369141</v>
+        <v>0.2707436970302037</v>
       </c>
       <c r="F150" t="n">
-        <v>235.3984985351562</v>
+        <v>0.4203544616699219</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
@@ -4810,10 +4810,10 @@
         <v>16600</v>
       </c>
       <c r="E151" t="n">
-        <v>154.522705078125</v>
+        <v>0.2759334019252232</v>
       </c>
       <c r="F151" t="n">
-        <v>233.5010375976562</v>
+        <v>0.4169661385672433</v>
       </c>
       <c r="G151" t="b">
         <v>0</v>
@@ -4839,10 +4839,10 @@
         <v>16717</v>
       </c>
       <c r="E152" t="n">
-        <v>157.8235321044922</v>
+        <v>0.2818277359008789</v>
       </c>
       <c r="F152" t="n">
-        <v>231.2828063964844</v>
+        <v>0.4130050114222935</v>
       </c>
       <c r="G152" t="b">
         <v>0</v>
@@ -4868,10 +4868,10 @@
         <v>16833</v>
       </c>
       <c r="E153" t="n">
-        <v>161.0676727294922</v>
+        <v>0.2876208441598075</v>
       </c>
       <c r="F153" t="n">
-        <v>229.0353698730469</v>
+        <v>0.4089917319161551</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
@@ -4897,10 +4897,10 @@
         <v>16934</v>
       </c>
       <c r="E154" t="n">
-        <v>163.9224243164062</v>
+        <v>0.2927186148507254</v>
       </c>
       <c r="F154" t="n">
-        <v>227.0009765625</v>
+        <v>0.40535888671875</v>
       </c>
       <c r="G154" t="b">
         <v>0</v>
@@ -4926,10 +4926,10 @@
         <v>17051</v>
       </c>
       <c r="E155" t="n">
-        <v>167.4061889648438</v>
+        <v>0.2989396231515067</v>
       </c>
       <c r="F155" t="n">
-        <v>224.4441223144531</v>
+        <v>0.4007930755615234</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
@@ -4955,10 +4955,10 @@
         <v>17168</v>
       </c>
       <c r="E156" t="n">
-        <v>170.9689788818359</v>
+        <v>0.3053017480032785</v>
       </c>
       <c r="F156" t="n">
-        <v>221.7422180175781</v>
+        <v>0.3959682464599609</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
@@ -4984,10 +4984,10 @@
         <v>17284</v>
       </c>
       <c r="E157" t="n">
-        <v>174.4654388427734</v>
+        <v>0.3115454265049526</v>
       </c>
       <c r="F157" t="n">
-        <v>219.0018615722656</v>
+        <v>0.3910747528076172</v>
       </c>
       <c r="G157" t="b">
         <v>0</v>
@@ -5013,10 +5013,10 @@
         <v>17385</v>
       </c>
       <c r="E158" t="n">
-        <v>177.4016265869141</v>
+        <v>0.3167886189052037</v>
       </c>
       <c r="F158" t="n">
-        <v>216.6302642822266</v>
+        <v>0.3868397576468331</v>
       </c>
       <c r="G158" t="b">
         <v>0</v>
@@ -5042,10 +5042,10 @@
         <v>17502</v>
       </c>
       <c r="E159" t="n">
-        <v>180.7541656494141</v>
+        <v>0.3227752958025251</v>
       </c>
       <c r="F159" t="n">
-        <v>213.8408813476562</v>
+        <v>0.3818587166922433</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
@@ -5071,10 +5071,10 @@
         <v>17618</v>
       </c>
       <c r="E160" t="n">
-        <v>184.0231170654297</v>
+        <v>0.3286127090454102</v>
       </c>
       <c r="F160" t="n">
-        <v>211.0343322753906</v>
+        <v>0.3768470219203404</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>17719</v>
       </c>
       <c r="E161" t="n">
-        <v>186.7654113769531</v>
+        <v>0.3335096631731306</v>
       </c>
       <c r="F161" t="n">
-        <v>208.6112976074219</v>
+        <v>0.3725201742989676</v>
       </c>
       <c r="G161" t="b">
         <v>0</v>
@@ -5129,10 +5129,10 @@
         <v>17836</v>
       </c>
       <c r="E162" t="n">
-        <v>189.8906402587891</v>
+        <v>0.3390904290335519</v>
       </c>
       <c r="F162" t="n">
-        <v>205.7706146240234</v>
+        <v>0.3674475261143276</v>
       </c>
       <c r="G162" t="b">
         <v>0</v>
@@ -5158,10 +5158,10 @@
         <v>17952</v>
       </c>
       <c r="E163" t="n">
-        <v>192.9411010742188</v>
+        <v>0.3445376804896763</v>
       </c>
       <c r="F163" t="n">
-        <v>202.9131011962891</v>
+        <v>0.3623448235648019</v>
       </c>
       <c r="G163" t="b">
         <v>0</v>
@@ -5187,10 +5187,10 @@
         <v>18053</v>
       </c>
       <c r="E164" t="n">
-        <v>195.4932250976562</v>
+        <v>0.3490950448172433</v>
       </c>
       <c r="F164" t="n">
-        <v>200.4554748535156</v>
+        <v>0.3579562050955636</v>
       </c>
       <c r="G164" t="b">
         <v>0</v>
@@ -5216,10 +5216,10 @@
         <v>18170</v>
       </c>
       <c r="E165" t="n">
-        <v>198.4014739990234</v>
+        <v>0.3542883464268275</v>
       </c>
       <c r="F165" t="n">
-        <v>197.5774536132812</v>
+        <v>0.352816881452288</v>
       </c>
       <c r="G165" t="b">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>18286</v>
       </c>
       <c r="E166" t="n">
-        <v>201.2337036132812</v>
+        <v>0.3593458993094308</v>
       </c>
       <c r="F166" t="n">
-        <v>194.6920471191406</v>
+        <v>0.3476643698556083</v>
       </c>
       <c r="G166" t="b">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>18387</v>
       </c>
       <c r="E167" t="n">
-        <v>203.6033630371094</v>
+        <v>0.3635774339948382</v>
       </c>
       <c r="F167" t="n">
-        <v>192.2125549316406</v>
+        <v>0.3432367052350725</v>
       </c>
       <c r="G167" t="b">
         <v>0</v>
@@ -5303,10 +5303,10 @@
         <v>18504</v>
       </c>
       <c r="E168" t="n">
-        <v>206.2942810058594</v>
+        <v>0.3683826446533203</v>
       </c>
       <c r="F168" t="n">
-        <v>189.3215942382812</v>
+        <v>0.3380742754255022</v>
       </c>
       <c r="G168" t="b">
         <v>0</v>
@@ -5332,10 +5332,10 @@
         <v>18620</v>
       </c>
       <c r="E169" t="n">
-        <v>208.9118347167969</v>
+        <v>0.3730568477085658</v>
       </c>
       <c r="F169" t="n">
-        <v>186.4292144775391</v>
+        <v>0.332909311567034</v>
       </c>
       <c r="G169" t="b">
         <v>0</v>
@@ -5361,10 +5361,10 @@
         <v>18721</v>
       </c>
       <c r="E170" t="n">
-        <v>211.0986175537109</v>
+        <v>0.3769618170601981</v>
       </c>
       <c r="F170" t="n">
-        <v>183.9493560791016</v>
+        <v>0.3284809929983957</v>
       </c>
       <c r="G170" t="b">
         <v>0</v>
@@ -5390,10 +5390,10 @@
         <v>18838</v>
       </c>
       <c r="E171" t="n">
-        <v>213.6186065673828</v>
+        <v>0.381461797441755</v>
       </c>
       <c r="F171" t="n">
-        <v>181.016845703125</v>
+        <v>0.323244367327009</v>
       </c>
       <c r="G171" t="b">
         <v>0</v>
@@ -5419,10 +5419,10 @@
         <v>18954</v>
       </c>
       <c r="E172" t="n">
-        <v>216.1166229248047</v>
+        <v>0.3859225409371512</v>
       </c>
       <c r="F172" t="n">
-        <v>178.0269927978516</v>
+        <v>0.3179053442818778</v>
       </c>
       <c r="G172" t="b">
         <v>0</v>
@@ -5448,10 +5448,10 @@
         <v>19055</v>
       </c>
       <c r="E173" t="n">
-        <v>218.2366638183594</v>
+        <v>0.3897083282470703</v>
       </c>
       <c r="F173" t="n">
-        <v>175.4216156005859</v>
+        <v>0.3132528850010463</v>
       </c>
       <c r="G173" t="b">
         <v>0</v>
@@ -5477,10 +5477,10 @@
         <v>19172</v>
       </c>
       <c r="E174" t="n">
-        <v>220.6773071289062</v>
+        <v>0.3940666198730469</v>
       </c>
       <c r="F174" t="n">
-        <v>172.3412933349609</v>
+        <v>0.307752309526716</v>
       </c>
       <c r="G174" t="b">
         <v>0</v>
@@ -5506,10 +5506,10 @@
         <v>19289</v>
       </c>
       <c r="E175" t="n">
-        <v>223.0780181884766</v>
+        <v>0.3983536039079938</v>
       </c>
       <c r="F175" t="n">
-        <v>169.2223205566406</v>
+        <v>0.3021827152797154</v>
       </c>
       <c r="G175" t="b">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>19405</v>
       </c>
       <c r="E176" t="n">
-        <v>225.4360504150391</v>
+        <v>0.4025643757411412</v>
       </c>
       <c r="F176" t="n">
-        <v>166.0680084228516</v>
+        <v>0.2965500150408064</v>
       </c>
       <c r="G176" t="b">
         <v>0</v>
@@ -5564,10 +5564,10 @@
         <v>19506</v>
       </c>
       <c r="E177" t="n">
-        <v>227.4337615966797</v>
+        <v>0.406131717136928</v>
       </c>
       <c r="F177" t="n">
-        <v>163.3214111328125</v>
+        <v>0.2916453770228795</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -5593,10 +5593,10 @@
         <v>19623</v>
       </c>
       <c r="E178" t="n">
-        <v>229.7542266845703</v>
+        <v>0.4102754047938755</v>
       </c>
       <c r="F178" t="n">
-        <v>160.0406188964844</v>
+        <v>0.2857868194580078</v>
       </c>
       <c r="G178" t="b">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>19739</v>
       </c>
       <c r="E179" t="n">
-        <v>232.0614929199219</v>
+        <v>0.4143955230712891</v>
       </c>
       <c r="F179" t="n">
-        <v>156.6763153076172</v>
+        <v>0.2797791344778878</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         <v>19840</v>
       </c>
       <c r="E180" t="n">
-        <v>234.0229339599609</v>
+        <v>0.4178980963570731</v>
       </c>
       <c r="F180" t="n">
-        <v>153.7311401367188</v>
+        <v>0.2745198931012835</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
@@ -5680,10 +5680,10 @@
         <v>19957</v>
       </c>
       <c r="E181" t="n">
-        <v>236.2935791015625</v>
+        <v>0.4219528198242187</v>
       </c>
       <c r="F181" t="n">
-        <v>150.2176361083984</v>
+        <v>0.2682457787649972</v>
       </c>
       <c r="G181" t="b">
         <v>0</v>
@@ -5709,10 +5709,10 @@
         <v>20073</v>
       </c>
       <c r="E182" t="n">
-        <v>238.5389251708984</v>
+        <v>0.4259623663766043</v>
       </c>
       <c r="F182" t="n">
-        <v>146.6259765625</v>
+        <v>0.2618321010044643</v>
       </c>
       <c r="G182" t="b">
         <v>0</v>
@@ -5738,10 +5738,10 @@
         <v>20174</v>
       </c>
       <c r="E183" t="n">
-        <v>240.4416198730469</v>
+        <v>0.4293600354875837</v>
       </c>
       <c r="F183" t="n">
-        <v>143.4846038818359</v>
+        <v>0.2562225069318499</v>
       </c>
       <c r="G183" t="b">
         <v>0</v>
@@ -5767,10 +5767,10 @@
         <v>20291</v>
       </c>
       <c r="E184" t="n">
-        <v>242.6255798339844</v>
+        <v>0.4332599639892578</v>
       </c>
       <c r="F184" t="n">
-        <v>139.7598876953125</v>
+        <v>0.2495712280273437</v>
       </c>
       <c r="G184" t="b">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         <v>20407</v>
       </c>
       <c r="E185" t="n">
-        <v>244.7550201416016</v>
+        <v>0.4370625359671457</v>
       </c>
       <c r="F185" t="n">
-        <v>135.9962768554688</v>
+        <v>0.2428504943847656</v>
       </c>
       <c r="G185" t="b">
         <v>0</v>
@@ -5825,10 +5825,10 @@
         <v>20508</v>
       </c>
       <c r="E186" t="n">
-        <v>246.5252227783203</v>
+        <v>0.4402236121041434</v>
       </c>
       <c r="F186" t="n">
-        <v>132.7603912353516</v>
+        <v>0.2370721272059849</v>
       </c>
       <c r="G186" t="b">
         <v>0</v>
@@ -5854,10 +5854,10 @@
         <v>20625</v>
       </c>
       <c r="E187" t="n">
-        <v>248.5140838623047</v>
+        <v>0.4437751497541155</v>
       </c>
       <c r="F187" t="n">
-        <v>128.9989929199219</v>
+        <v>0.2303553444998605</v>
       </c>
       <c r="G187" t="b">
         <v>0</v>
@@ -5883,10 +5883,10 @@
         <v>20741</v>
       </c>
       <c r="E188" t="n">
-        <v>250.4405059814453</v>
+        <v>0.4472151892525809</v>
       </c>
       <c r="F188" t="n">
-        <v>125.2180252075195</v>
+        <v>0.2236036164419992</v>
       </c>
       <c r="G188" t="b">
         <v>0</v>
@@ -5912,10 +5912,10 @@
         <v>20842</v>
       </c>
       <c r="E189" t="n">
-        <v>252.0546264648438</v>
+        <v>0.4500975472586495</v>
       </c>
       <c r="F189" t="n">
-        <v>121.9362487792969</v>
+        <v>0.2177433013916016</v>
       </c>
       <c r="G189" t="b">
         <v>0</v>
@@ -5941,10 +5941,10 @@
         <v>20959</v>
       </c>
       <c r="E190" t="n">
-        <v>253.8979644775391</v>
+        <v>0.4533892222813198</v>
       </c>
       <c r="F190" t="n">
-        <v>118.0500640869141</v>
+        <v>0.2108036858694894</v>
       </c>
       <c r="G190" t="b">
         <v>0</v>
@@ -5970,10 +5970,10 @@
         <v>21075</v>
       </c>
       <c r="E191" t="n">
-        <v>255.697998046875</v>
+        <v>0.4566035679408482</v>
       </c>
       <c r="F191" t="n">
-        <v>114.0988082885742</v>
+        <v>0.2037478719438825</v>
       </c>
       <c r="G191" t="b">
         <v>0</v>
@@ -5999,10 +5999,10 @@
         <v>21176</v>
       </c>
       <c r="E192" t="n">
-        <v>257.21044921875</v>
+        <v>0.4593043736049107</v>
       </c>
       <c r="F192" t="n">
-        <v>110.6470642089844</v>
+        <v>0.1975840432303292</v>
       </c>
       <c r="G192" t="b">
         <v>0</v>
@@ -6028,10 +6028,10 @@
         <v>21293</v>
       </c>
       <c r="E193" t="n">
-        <v>258.9341735839844</v>
+        <v>0.4623824528285435</v>
       </c>
       <c r="F193" t="n">
-        <v>106.5509338378906</v>
+        <v>0.190269524710519</v>
       </c>
       <c r="G193" t="b">
         <v>0</v>
@@ -6057,10 +6057,10 @@
         <v>21409</v>
       </c>
       <c r="E194" t="n">
-        <v>260.6148376464844</v>
+        <v>0.4653836386544364</v>
       </c>
       <c r="F194" t="n">
-        <v>102.3714218139648</v>
+        <v>0.1828061103820801</v>
       </c>
       <c r="G194" t="b">
         <v>0</v>
@@ -6086,10 +6086,10 @@
         <v>21510</v>
       </c>
       <c r="E195" t="n">
-        <v>262.0189819335938</v>
+        <v>0.4678910391671317</v>
       </c>
       <c r="F195" t="n">
-        <v>98.72209167480469</v>
+        <v>0.1762894494192941</v>
       </c>
       <c r="G195" t="b">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>21627</v>
       </c>
       <c r="E196" t="n">
-        <v>263.5877380371094</v>
+        <v>0.470692389351981</v>
       </c>
       <c r="F196" t="n">
-        <v>94.45376586914062</v>
+        <v>0.1686674390520368</v>
       </c>
       <c r="G196" t="b">
         <v>0</v>
@@ -6144,10 +6144,10 @@
         <v>21744</v>
       </c>
       <c r="E197" t="n">
-        <v>265.075439453125</v>
+        <v>0.4733489990234375</v>
       </c>
       <c r="F197" t="n">
-        <v>90.19432067871094</v>
+        <v>0.1610612869262695</v>
       </c>
       <c r="G197" t="b">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>21860</v>
       </c>
       <c r="E198" t="n">
-        <v>266.4770812988281</v>
+        <v>0.4758519308907645</v>
       </c>
       <c r="F198" t="n">
-        <v>85.96492767333984</v>
+        <v>0.1535087994166783</v>
       </c>
       <c r="G198" t="b">
         <v>0</v>
@@ -6202,10 +6202,10 @@
         <v>21961</v>
       </c>
       <c r="E199" t="n">
-        <v>267.6174621582031</v>
+        <v>0.4778883252825056</v>
       </c>
       <c r="F199" t="n">
-        <v>82.34613037109375</v>
+        <v>0.1470466613769531</v>
       </c>
       <c r="G199" t="b">
         <v>0</v>
@@ -6231,10 +6231,10 @@
         <v>22078</v>
       </c>
       <c r="E200" t="n">
-        <v>268.8932189941406</v>
+        <v>0.4801664624895368</v>
       </c>
       <c r="F200" t="n">
-        <v>78.07970428466797</v>
+        <v>0.1394280433654785</v>
       </c>
       <c r="G200" t="b">
         <v>0</v>
@@ -6260,10 +6260,10 @@
         <v>22194</v>
       </c>
       <c r="E201" t="n">
-        <v>270.1302490234375</v>
+        <v>0.4823754446847098</v>
       </c>
       <c r="F201" t="n">
-        <v>73.68618774414062</v>
+        <v>0.1315824781145368</v>
       </c>
       <c r="G201" t="b">
         <v>0</v>
@@ -6289,10 +6289,10 @@
         <v>22295</v>
       </c>
       <c r="E202" t="n">
-        <v>271.1377563476562</v>
+        <v>0.484174564906529</v>
       </c>
       <c r="F202" t="n">
-        <v>69.887939453125</v>
+        <v>0.1247998918805804</v>
       </c>
       <c r="G202" t="b">
         <v>0</v>
@@ -6318,10 +6318,10 @@
         <v>22412</v>
       </c>
       <c r="E203" t="n">
-        <v>272.2373962402344</v>
+        <v>0.4861382075718471</v>
       </c>
       <c r="F203" t="n">
-        <v>65.47367858886719</v>
+        <v>0.1169172831944057</v>
       </c>
       <c r="G203" t="b">
         <v>0</v>
@@ -6347,10 +6347,10 @@
         <v>22528</v>
       </c>
       <c r="E204" t="n">
-        <v>273.2568359375</v>
+        <v>0.4879586356026785</v>
       </c>
       <c r="F204" t="n">
-        <v>61.07950592041016</v>
+        <v>0.1090705462864467</v>
       </c>
       <c r="G204" t="b">
         <v>0</v>
@@ -6376,10 +6376,10 @@
         <v>22629</v>
       </c>
       <c r="E205" t="n">
-        <v>274.0667114257812</v>
+        <v>0.4894048418317523</v>
       </c>
       <c r="F205" t="n">
-        <v>57.33616638183594</v>
+        <v>0.1023860113961356</v>
       </c>
       <c r="G205" t="b">
         <v>0</v>
@@ -6405,10 +6405,10 @@
         <v>22746</v>
       </c>
       <c r="E206" t="n">
-        <v>274.9496154785156</v>
+        <v>0.490981456211635</v>
       </c>
       <c r="F206" t="n">
-        <v>52.94074630737305</v>
+        <v>0.09453704697745187</v>
       </c>
       <c r="G206" t="b">
         <v>0</v>
@@ -6434,10 +6434,10 @@
         <v>22862</v>
       </c>
       <c r="E207" t="n">
-        <v>275.7749938964844</v>
+        <v>0.4924553462437221</v>
       </c>
       <c r="F207" t="n">
-        <v>48.45770263671875</v>
+        <v>0.08653161185128348</v>
       </c>
       <c r="G207" t="b">
         <v>0</v>
@@ -6463,10 +6463,10 @@
         <v>22963</v>
       </c>
       <c r="E208" t="n">
-        <v>276.4205322265625</v>
+        <v>0.4936080932617187</v>
       </c>
       <c r="F208" t="n">
-        <v>44.62835693359375</v>
+        <v>0.07969349452427456</v>
       </c>
       <c r="G208" t="b">
         <v>0</v>
@@ -6492,10 +6492,10 @@
         <v>23080</v>
       </c>
       <c r="E209" t="n">
-        <v>277.1019592285156</v>
+        <v>0.4948249271937779</v>
       </c>
       <c r="F209" t="n">
-        <v>40.18080902099609</v>
+        <v>0.07175144468035016</v>
       </c>
       <c r="G209" t="b">
         <v>0</v>
@@ -6521,10 +6521,10 @@
         <v>23196</v>
       </c>
       <c r="E210" t="n">
-        <v>277.7091979980469</v>
+        <v>0.4959092821393694</v>
       </c>
       <c r="F210" t="n">
-        <v>35.74348831176758</v>
+        <v>0.06382765769958496</v>
       </c>
       <c r="G210" t="b">
         <v>0</v>
@@ -6550,10 +6550,10 @@
         <v>23297</v>
       </c>
       <c r="E211" t="n">
-        <v>278.177490234375</v>
+        <v>0.4967455182756697</v>
       </c>
       <c r="F211" t="n">
-        <v>31.8947868347168</v>
+        <v>0.05695497649056571</v>
       </c>
       <c r="G211" t="b">
         <v>0</v>
@@ -6579,10 +6579,10 @@
         <v>23414</v>
       </c>
       <c r="E212" t="n">
-        <v>278.6617431640625</v>
+        <v>0.4976102556501116</v>
       </c>
       <c r="F212" t="n">
-        <v>27.34266471862793</v>
+        <v>0.04882618699754988</v>
       </c>
       <c r="G212" t="b">
         <v>0</v>
@@ -6608,10 +6608,10 @@
         <v>23530</v>
       </c>
       <c r="E213" t="n">
-        <v>279.0759582519531</v>
+        <v>0.4983499254499163</v>
       </c>
       <c r="F213" t="n">
-        <v>22.72914123535156</v>
+        <v>0.04058775220598494</v>
       </c>
       <c r="G213" t="b">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>23631</v>
       </c>
       <c r="E214" t="n">
-        <v>279.3720092773438</v>
+        <v>0.4988785879952567</v>
       </c>
       <c r="F214" t="n">
-        <v>18.74270057678223</v>
+        <v>0.0334691081728254</v>
       </c>
       <c r="G214" t="b">
         <v>0</v>
@@ -6666,10 +6666,10 @@
         <v>23748</v>
       </c>
       <c r="E215" t="n">
-        <v>279.6434631347656</v>
+        <v>0.4993633270263672</v>
       </c>
       <c r="F215" t="n">
-        <v>14.12553596496582</v>
+        <v>0.02522417136601039</v>
       </c>
       <c r="G215" t="b">
         <v>0</v>
@@ -6695,10 +6695,10 @@
         <v>23865</v>
       </c>
       <c r="E216" t="n">
-        <v>279.8370971679688</v>
+        <v>0.4997091020856585</v>
       </c>
       <c r="F216" t="n">
-        <v>9.55000114440918</v>
+        <v>0.01705357347215925</v>
       </c>
       <c r="G216" t="b">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         <v>23981</v>
       </c>
       <c r="E217" t="n">
-        <v>279.9550476074219</v>
+        <v>0.4999197278703962</v>
       </c>
       <c r="F217" t="n">
-        <v>5.017272472381592</v>
+        <v>0.008959415129252843</v>
       </c>
       <c r="G217" t="b">
         <v>0</v>
@@ -6753,10 +6753,10 @@
         <v>24082</v>
       </c>
       <c r="E218" t="n">
-        <v>279.9976806640625</v>
+        <v>0.499995858328683</v>
       </c>
       <c r="F218" t="n">
-        <v>1.137117147445679</v>
+        <v>0.002030566334724426</v>
       </c>
       <c r="G218" t="b">
         <v>0</v>
@@ -6782,10 +6782,10 @@
         <v>24199</v>
       </c>
       <c r="E219" t="n">
-        <v>279.9786682128906</v>
+        <v>0.499961907523019</v>
       </c>
       <c r="F219" t="n">
-        <v>-3.4556725025177</v>
+        <v>-0.006170843754495893</v>
       </c>
       <c r="G219" t="b">
         <v>0</v>
@@ -6811,10 +6811,10 @@
         <v>24315</v>
       </c>
       <c r="E220" t="n">
-        <v>279.8633422851562</v>
+        <v>0.4997559683663504</v>
       </c>
       <c r="F220" t="n">
-        <v>-8.747227668762207</v>
+        <v>-0.01562004940850394</v>
       </c>
       <c r="G220" t="b">
         <v>0</v>
@@ -6840,10 +6840,10 @@
         <v>24416</v>
       </c>
       <c r="E221" t="n">
-        <v>279.7129516601562</v>
+        <v>0.4994874136788505</v>
       </c>
       <c r="F221" t="n">
-        <v>-12.67502593994141</v>
+        <v>-0.02263397489275251</v>
       </c>
       <c r="G221" t="b">
         <v>0</v>
@@ -6869,10 +6869,10 @@
         <v>24533</v>
       </c>
       <c r="E222" t="n">
-        <v>279.4714965820312</v>
+        <v>0.4990562438964844</v>
       </c>
       <c r="F222" t="n">
-        <v>-17.19568061828613</v>
+        <v>-0.03070657253265381</v>
       </c>
       <c r="G222" t="b">
         <v>0</v>
@@ -6898,10 +6898,10 @@
         <v>24649</v>
       </c>
       <c r="E223" t="n">
-        <v>279.1609802246094</v>
+        <v>0.4985017504010882</v>
       </c>
       <c r="F223" t="n">
-        <v>-21.65968894958496</v>
+        <v>-0.03867801598140171</v>
       </c>
       <c r="G223" t="b">
         <v>0</v>
@@ -6927,10 +6927,10 @@
         <v>24750</v>
       </c>
       <c r="E224" t="n">
-        <v>278.8428039550781</v>
+        <v>0.4979335784912109</v>
       </c>
       <c r="F224" t="n">
-        <v>-25.43010711669922</v>
+        <v>-0.04541090556553432</v>
       </c>
       <c r="G224" t="b">
         <v>0</v>
@@ -6956,10 +6956,10 @@
         <v>24867</v>
       </c>
       <c r="E225" t="n">
-        <v>278.4145202636719</v>
+        <v>0.4971687861851283</v>
       </c>
       <c r="F225" t="n">
-        <v>-29.7548828125</v>
+        <v>-0.05313371930803571</v>
       </c>
       <c r="G225" t="b">
         <v>0</v>
@@ -6985,10 +6985,10 @@
         <v>24983</v>
       </c>
       <c r="E226" t="n">
-        <v>277.9275207519531</v>
+        <v>0.4962991441999163</v>
       </c>
       <c r="F226" t="n">
-        <v>-34.00441741943359</v>
+        <v>-0.06072217396327428</v>
       </c>
       <c r="G226" t="b">
         <v>0</v>
@@ -7014,10 +7014,10 @@
         <v>25084</v>
       </c>
       <c r="E227" t="n">
-        <v>277.4666137695312</v>
+        <v>0.4954760960170201</v>
       </c>
       <c r="F227" t="n">
-        <v>-37.58031463623047</v>
+        <v>-0.06710770470755441</v>
       </c>
       <c r="G227" t="b">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>25201</v>
       </c>
       <c r="E228" t="n">
-        <v>276.8805541992188</v>
+        <v>0.4944295610700335</v>
       </c>
       <c r="F228" t="n">
-        <v>-41.67923355102539</v>
+        <v>-0.0744272027696882</v>
       </c>
       <c r="G228" t="b">
         <v>0</v>
@@ -7072,10 +7072,10 @@
         <v>25317</v>
       </c>
       <c r="E229" t="n">
-        <v>276.2448425292969</v>
+        <v>0.4932943616594587</v>
       </c>
       <c r="F229" t="n">
-        <v>-45.70310211181641</v>
+        <v>-0.0816126823425293</v>
       </c>
       <c r="G229" t="b">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>25418</v>
       </c>
       <c r="E230" t="n">
-        <v>275.6494750976562</v>
+        <v>0.492231205531529</v>
       </c>
       <c r="F230" t="n">
-        <v>-49.16653442382812</v>
+        <v>-0.08779738289969308</v>
       </c>
       <c r="G230" t="b">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>25535</v>
       </c>
       <c r="E231" t="n">
-        <v>274.8757934570312</v>
+        <v>0.4908496311732701</v>
       </c>
       <c r="F231" t="n">
-        <v>-53.3226203918457</v>
+        <v>-0.09521896498543876</v>
       </c>
       <c r="G231" t="b">
         <v>0</v>
@@ -7159,10 +7159,10 @@
         <v>25651</v>
       </c>
       <c r="E232" t="n">
-        <v>274.0132751464844</v>
+        <v>0.4893094199044364</v>
       </c>
       <c r="F232" t="n">
-        <v>-57.59107208251953</v>
+        <v>-0.1028412001473563</v>
       </c>
       <c r="G232" t="b">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>25752</v>
       </c>
       <c r="E233" t="n">
-        <v>273.2247009277344</v>
+        <v>0.4879012516566685</v>
       </c>
       <c r="F233" t="n">
-        <v>-61.22307968139648</v>
+        <v>-0.1093269280024937</v>
       </c>
       <c r="G233" t="b">
         <v>0</v>
@@ -7217,10 +7217,10 @@
         <v>25869</v>
       </c>
       <c r="E234" t="n">
-        <v>272.2586669921875</v>
+        <v>0.4861761910574777</v>
       </c>
       <c r="F234" t="n">
-        <v>-65.38516998291016</v>
+        <v>-0.1167592321123396</v>
       </c>
       <c r="G234" t="b">
         <v>0</v>
@@ -7246,10 +7246,10 @@
         <v>25986</v>
       </c>
       <c r="E235" t="n">
-        <v>271.2466125488281</v>
+        <v>0.4843689509800502</v>
       </c>
       <c r="F235" t="n">
-        <v>-69.46425628662109</v>
+        <v>-0.1240433147975377</v>
       </c>
       <c r="G235" t="b">
         <v>0</v>
@@ -7275,10 +7275,10 @@
         <v>26102</v>
       </c>
       <c r="E236" t="n">
-        <v>270.1921691894531</v>
+        <v>0.4824860164097377</v>
       </c>
       <c r="F236" t="n">
-        <v>-73.45880889892578</v>
+        <v>-0.1311764444623675</v>
       </c>
       <c r="G236" t="b">
         <v>0</v>
@@ -7304,10 +7304,10 @@
         <v>26203</v>
       </c>
       <c r="E237" t="n">
-        <v>269.2317504882812</v>
+        <v>0.4807709830147879</v>
       </c>
       <c r="F237" t="n">
-        <v>-76.9041748046875</v>
+        <v>-0.1373288835797991</v>
       </c>
       <c r="G237" t="b">
         <v>0</v>
@@ -7333,10 +7333,10 @@
         <v>26320</v>
       </c>
       <c r="E238" t="n">
-        <v>268.0319213867188</v>
+        <v>0.4786284310477121</v>
       </c>
       <c r="F238" t="n">
-        <v>-80.98704528808594</v>
+        <v>-0.1446197237287249</v>
       </c>
       <c r="G238" t="b">
         <v>0</v>
@@ -7362,10 +7362,10 @@
         <v>26436</v>
       </c>
       <c r="E239" t="n">
-        <v>266.781494140625</v>
+        <v>0.4763955252511161</v>
       </c>
       <c r="F239" t="n">
-        <v>-85.01546478271484</v>
+        <v>-0.1518133299691337</v>
       </c>
       <c r="G239" t="b">
         <v>0</v>
@@ -7391,10 +7391,10 @@
         <v>26537</v>
       </c>
       <c r="E240" t="n">
-        <v>265.6782531738281</v>
+        <v>0.4744254520961216</v>
       </c>
       <c r="F240" t="n">
-        <v>-88.40280914306641</v>
+        <v>-0.1578621591840471</v>
       </c>
       <c r="G240" t="b">
         <v>0</v>
@@ -7420,10 +7420,10 @@
         <v>26654</v>
       </c>
       <c r="E241" t="n">
-        <v>264.308837890625</v>
+        <v>0.4719800676618304</v>
       </c>
       <c r="F241" t="n">
-        <v>-92.4166259765625</v>
+        <v>-0.1650296892438616</v>
       </c>
       <c r="G241" t="b">
         <v>0</v>
@@ -7449,10 +7449,10 @@
         <v>26770</v>
       </c>
       <c r="E242" t="n">
-        <v>262.8011474609375</v>
+        <v>0.4692877633231027</v>
       </c>
       <c r="F242" t="n">
-        <v>-96.62065124511719</v>
+        <v>-0.1725368772234236</v>
       </c>
       <c r="G242" t="b">
         <v>0</v>
@@ -7478,10 +7478,10 @@
         <v>26871</v>
       </c>
       <c r="E243" t="n">
-        <v>261.4117431640625</v>
+        <v>0.4668066842215402</v>
       </c>
       <c r="F243" t="n">
-        <v>-100.3190002441406</v>
+        <v>-0.1791410718645368</v>
       </c>
       <c r="G243" t="b">
         <v>0</v>
@@ -7507,10 +7507,10 @@
         <v>26988</v>
       </c>
       <c r="E244" t="n">
-        <v>259.7439575195312</v>
+        <v>0.4638284955705915</v>
       </c>
       <c r="F244" t="n">
-        <v>-104.5613479614258</v>
+        <v>-0.1867166927882603</v>
       </c>
       <c r="G244" t="b">
         <v>0</v>
@@ -7536,10 +7536,10 @@
         <v>27104</v>
       </c>
       <c r="E245" t="n">
-        <v>258.0298461914062</v>
+        <v>0.460767582484654</v>
       </c>
       <c r="F245" t="n">
-        <v>-108.7225189208984</v>
+        <v>-0.1941473552158901</v>
       </c>
       <c r="G245" t="b">
         <v>0</v>
@@ -7565,10 +7565,10 @@
         <v>27205</v>
       </c>
       <c r="E246" t="n">
-        <v>256.4881896972656</v>
+        <v>0.4580146244594029</v>
       </c>
       <c r="F246" t="n">
-        <v>-112.311164855957</v>
+        <v>-0.2005556515284947</v>
       </c>
       <c r="G246" t="b">
         <v>0</v>
@@ -7594,10 +7594,10 @@
         <v>27322</v>
       </c>
       <c r="E247" t="n">
-        <v>254.5540618896484</v>
+        <v>0.4545608248029436</v>
       </c>
       <c r="F247" t="n">
-        <v>-116.6285781860352</v>
+        <v>-0.2082653181893485</v>
       </c>
       <c r="G247" t="b">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         <v>27438</v>
       </c>
       <c r="E248" t="n">
-        <v>252.5244903564453</v>
+        <v>0.4509365899222238</v>
       </c>
       <c r="F248" t="n">
-        <v>-120.9602355957031</v>
+        <v>-0.2160004207066127</v>
       </c>
       <c r="G248" t="b">
         <v>0</v>
@@ -7652,10 +7652,10 @@
         <v>27539</v>
       </c>
       <c r="E249" t="n">
-        <v>250.7473754882812</v>
+        <v>0.4477631705147879</v>
       </c>
       <c r="F249" t="n">
-        <v>-124.602424621582</v>
+        <v>-0.2225043296813965</v>
       </c>
       <c r="G249" t="b">
         <v>0</v>
@@ -7681,10 +7681,10 @@
         <v>27656</v>
       </c>
       <c r="E250" t="n">
-        <v>248.6293029785156</v>
+        <v>0.4439808981759207</v>
       </c>
       <c r="F250" t="n">
-        <v>-128.7768096923828</v>
+        <v>-0.2299585887363979</v>
       </c>
       <c r="G250" t="b">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>27772</v>
       </c>
       <c r="E251" t="n">
-        <v>246.4352569580078</v>
+        <v>0.4400629588535854</v>
       </c>
       <c r="F251" t="n">
-        <v>-132.9272766113281</v>
+        <v>-0.2373701368059431</v>
       </c>
       <c r="G251" t="b">
         <v>0</v>
@@ -7739,10 +7739,10 @@
         <v>27873</v>
       </c>
       <c r="E252" t="n">
-        <v>244.4415588378906</v>
+        <v>0.4365027836390904</v>
       </c>
       <c r="F252" t="n">
-        <v>-136.5588989257812</v>
+        <v>-0.2438551766531808</v>
       </c>
       <c r="G252" t="b">
         <v>0</v>
@@ -7768,10 +7768,10 @@
         <v>27990</v>
       </c>
       <c r="E253" t="n">
-        <v>241.9962768554688</v>
+        <v>0.4321362086704799</v>
       </c>
       <c r="F253" t="n">
-        <v>-140.8467102050781</v>
+        <v>-0.2515119825090681</v>
       </c>
       <c r="G253" t="b">
         <v>0</v>
@@ -7797,10 +7797,10 @@
         <v>28106</v>
       </c>
       <c r="E254" t="n">
-        <v>239.4876251220703</v>
+        <v>0.4276564734322684</v>
       </c>
       <c r="F254" t="n">
-        <v>-145.0713348388672</v>
+        <v>-0.2590559550694057</v>
       </c>
       <c r="G254" t="b">
         <v>0</v>
@@ -7826,10 +7826,10 @@
         <v>28207</v>
       </c>
       <c r="E255" t="n">
-        <v>237.2973937988281</v>
+        <v>0.4237453460693359</v>
       </c>
       <c r="F255" t="n">
-        <v>-148.6268615722656</v>
+        <v>-0.2654051099504743</v>
       </c>
       <c r="G255" t="b">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>28324</v>
       </c>
       <c r="E256" t="n">
-        <v>234.699951171875</v>
+        <v>0.4191070556640625</v>
       </c>
       <c r="F256" t="n">
-        <v>-152.695556640625</v>
+        <v>-0.2726706368582589</v>
       </c>
       <c r="G256" t="b">
         <v>0</v>
@@ -7884,10 +7884,10 @@
         <v>28441</v>
       </c>
       <c r="E257" t="n">
-        <v>232.0041809082031</v>
+        <v>0.4142931801932199</v>
       </c>
       <c r="F257" t="n">
-        <v>-156.7611694335938</v>
+        <v>-0.279930659702846</v>
       </c>
       <c r="G257" t="b">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>28557</v>
       </c>
       <c r="E258" t="n">
-        <v>229.185546875</v>
+        <v>0.4092599051339286</v>
       </c>
       <c r="F258" t="n">
-        <v>-160.8538970947266</v>
+        <v>-0.2872391019548688</v>
       </c>
       <c r="G258" t="b">
         <v>0</v>
@@ -7942,10 +7942,10 @@
         <v>28658</v>
       </c>
       <c r="E259" t="n">
-        <v>226.7182006835938</v>
+        <v>0.4048539297921317</v>
       </c>
       <c r="F259" t="n">
-        <v>-164.3132934570312</v>
+        <v>-0.2934165954589844</v>
       </c>
       <c r="G259" t="b">
         <v>0</v>
@@ -7971,10 +7971,10 @@
         <v>28775</v>
       </c>
       <c r="E260" t="n">
-        <v>223.8014221191406</v>
+        <v>0.3996453966413225</v>
       </c>
       <c r="F260" t="n">
-        <v>-168.2644500732422</v>
+        <v>-0.3004722322736468</v>
       </c>
       <c r="G260" t="b">
         <v>0</v>
@@ -8000,10 +8000,10 @@
         <v>28891</v>
       </c>
       <c r="E261" t="n">
-        <v>220.8491668701172</v>
+        <v>0.3943735122680664</v>
       </c>
       <c r="F261" t="n">
-        <v>-172.1210479736328</v>
+        <v>-0.30735901423863</v>
       </c>
       <c r="G261" t="b">
         <v>0</v>
@@ -8029,10 +8029,10 @@
         <v>28992</v>
       </c>
       <c r="E262" t="n">
-        <v>218.2590026855469</v>
+        <v>0.3897482190813337</v>
       </c>
       <c r="F262" t="n">
-        <v>-175.3938598632812</v>
+        <v>-0.3132033211844308</v>
       </c>
       <c r="G262" t="b">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>29109</v>
       </c>
       <c r="E263" t="n">
-        <v>215.1060791015625</v>
+        <v>0.3841179983956473</v>
       </c>
       <c r="F263" t="n">
-        <v>-179.2466888427734</v>
+        <v>-0.320083372933524</v>
       </c>
       <c r="G263" t="b">
         <v>0</v>
@@ -8087,10 +8087,10 @@
         <v>29225</v>
       </c>
       <c r="E264" t="n">
-        <v>211.8676147460938</v>
+        <v>0.3783350263323103</v>
       </c>
       <c r="F264" t="n">
-        <v>-183.0631408691406</v>
+        <v>-0.3268984658377511</v>
       </c>
       <c r="G264" t="b">
         <v>0</v>
@@ -8116,10 +8116,10 @@
         <v>29326</v>
       </c>
       <c r="E265" t="n">
-        <v>209.0637817382812</v>
+        <v>0.3733281816755022</v>
       </c>
       <c r="F265" t="n">
-        <v>-186.2587738037109</v>
+        <v>-0.3326049532209124</v>
       </c>
       <c r="G265" t="b">
         <v>0</v>
@@ -8145,10 +8145,10 @@
         <v>29443</v>
       </c>
       <c r="E266" t="n">
-        <v>205.7574462890625</v>
+        <v>0.3674240112304688</v>
       </c>
       <c r="F266" t="n">
-        <v>-189.9048919677734</v>
+        <v>-0.3391158785138811</v>
       </c>
       <c r="G266" t="b">
         <v>0</v>
@@ -8174,10 +8174,10 @@
         <v>29559</v>
       </c>
       <c r="E267" t="n">
-        <v>202.4251556396484</v>
+        <v>0.3614734922136579</v>
       </c>
       <c r="F267" t="n">
-        <v>-193.4529876708984</v>
+        <v>-0.3454517636980329</v>
       </c>
       <c r="G267" t="b">
         <v>0</v>
@@ -8203,10 +8203,10 @@
         <v>29660</v>
       </c>
       <c r="E268" t="n">
-        <v>199.5499420166016</v>
+        <v>0.3563391821725028</v>
       </c>
       <c r="F268" t="n">
-        <v>-196.4174499511719</v>
+        <v>-0.3507454463413783</v>
       </c>
       <c r="G268" t="b">
         <v>0</v>
@@ -8232,10 +8232,10 @@
         <v>29777</v>
       </c>
       <c r="E269" t="n">
-        <v>196.1741333007812</v>
+        <v>0.3503109523228237</v>
       </c>
       <c r="F269" t="n">
-        <v>-199.7891540527344</v>
+        <v>-0.35676634652274</v>
       </c>
       <c r="G269" t="b">
         <v>0</v>
@@ -8261,10 +8261,10 @@
         <v>29893</v>
       </c>
       <c r="E270" t="n">
-        <v>192.7887878417969</v>
+        <v>0.3442656925746373</v>
       </c>
       <c r="F270" t="n">
-        <v>-203.0578460693359</v>
+        <v>-0.3626032965523856</v>
       </c>
       <c r="G270" t="b">
         <v>0</v>
@@ -8290,10 +8290,10 @@
         <v>29994</v>
       </c>
       <c r="E271" t="n">
-        <v>189.877197265625</v>
+        <v>0.3390664236886161</v>
       </c>
       <c r="F271" t="n">
-        <v>-205.7830200195312</v>
+        <v>-0.3674696786063058</v>
       </c>
       <c r="G271" t="b">
         <v>0</v>
@@ -8319,10 +8319,10 @@
         <v>30111</v>
       </c>
       <c r="E272" t="n">
-        <v>186.4765014648438</v>
+        <v>0.3329937526157924</v>
       </c>
       <c r="F272" t="n">
-        <v>-208.8696136474609</v>
+        <v>-0.3729814529418946</v>
       </c>
       <c r="G272" t="b">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>30227</v>
       </c>
       <c r="E273" t="n">
-        <v>183.0737762451172</v>
+        <v>0.3269174575805664</v>
       </c>
       <c r="F273" t="n">
-        <v>-211.8584442138672</v>
+        <v>-0.3783186503819057</v>
       </c>
       <c r="G273" t="b">
         <v>0</v>
@@ -8377,10 +8377,10 @@
         <v>30328</v>
       </c>
       <c r="E274" t="n">
-        <v>180.1637725830078</v>
+        <v>0.3217210224696568</v>
       </c>
       <c r="F274" t="n">
-        <v>-214.3385467529297</v>
+        <v>-0.3827474049159459</v>
       </c>
       <c r="G274" t="b">
         <v>0</v>
@@ -8406,10 +8406,10 @@
         <v>30445</v>
       </c>
       <c r="E275" t="n">
-        <v>176.7805328369141</v>
+        <v>0.3156795229230608</v>
       </c>
       <c r="F275" t="n">
-        <v>-217.1374206542969</v>
+        <v>-0.3877453940255302</v>
       </c>
       <c r="G275" t="b">
         <v>0</v>
@@ -8435,10 +8435,10 @@
         <v>30562</v>
       </c>
       <c r="E276" t="n">
-        <v>173.4081573486328</v>
+        <v>0.3096574238368443</v>
       </c>
       <c r="F276" t="n">
-        <v>-219.8399658203125</v>
+        <v>-0.3925713675362723</v>
       </c>
       <c r="G276" t="b">
         <v>0</v>
@@ -8464,10 +8464,10 @@
         <v>30678</v>
       </c>
       <c r="E277" t="n">
-        <v>170.0539855957031</v>
+        <v>0.3036678314208984</v>
       </c>
       <c r="F277" t="n">
-        <v>-222.4446716308594</v>
+        <v>-0.3972226279122489</v>
       </c>
       <c r="G277" t="b">
         <v>0</v>
@@ -8493,10 +8493,10 @@
         <v>30779</v>
       </c>
       <c r="E278" t="n">
-        <v>167.1949005126953</v>
+        <v>0.2985623223440988</v>
       </c>
       <c r="F278" t="n">
-        <v>-224.6015472412109</v>
+        <v>-0.4010741915021624</v>
       </c>
       <c r="G278" t="b">
         <v>0</v>
@@ -8522,10 +8522,10 @@
         <v>30896</v>
       </c>
       <c r="E279" t="n">
-        <v>163.8890533447266</v>
+        <v>0.2926590238298689</v>
       </c>
       <c r="F279" t="n">
-        <v>-227.0250701904297</v>
+        <v>-0.4054019110543387</v>
       </c>
       <c r="G279" t="b">
         <v>0</v>
@@ -8551,10 +8551,10 @@
         <v>31012</v>
       </c>
       <c r="E280" t="n">
-        <v>160.6060638427734</v>
+        <v>0.2867965425763812</v>
       </c>
       <c r="F280" t="n">
-        <v>-229.3593139648438</v>
+        <v>-0.4095702035086495</v>
       </c>
       <c r="G280" t="b">
         <v>0</v>
@@ -8580,10 +8580,10 @@
         <v>31113</v>
       </c>
       <c r="E281" t="n">
-        <v>157.7402954101562</v>
+        <v>0.2816790989467076</v>
       </c>
       <c r="F281" t="n">
-        <v>-231.3395843505859</v>
+        <v>-0.4131064006260463</v>
       </c>
       <c r="G281" t="b">
         <v>0</v>
@@ -8609,10 +8609,10 @@
         <v>31230</v>
       </c>
       <c r="E282" t="n">
-        <v>154.2561187744141</v>
+        <v>0.2754573549543108</v>
       </c>
       <c r="F282" t="n">
-        <v>-233.6772308349609</v>
+        <v>-0.4172807693481445</v>
       </c>
       <c r="G282" t="b">
         <v>0</v>
@@ -8638,10 +8638,10 @@
         <v>31346</v>
       </c>
       <c r="E283" t="n">
-        <v>150.6857757568359</v>
+        <v>0.2690817424229213</v>
       </c>
       <c r="F283" t="n">
-        <v>-235.9953308105469</v>
+        <v>-0.4214202335902623</v>
       </c>
       <c r="G283" t="b">
         <v>0</v>
@@ -8667,10 +8667,10 @@
         <v>31447</v>
       </c>
       <c r="E284" t="n">
-        <v>147.6468505859375</v>
+        <v>0.2636550903320313</v>
       </c>
       <c r="F284" t="n">
-        <v>-237.9084014892578</v>
+        <v>-0.4248364312308175</v>
       </c>
       <c r="G284" t="b">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>31564</v>
       </c>
       <c r="E285" t="n">
-        <v>144.12841796875</v>
+        <v>0.2573721749441965</v>
       </c>
       <c r="F285" t="n">
-        <v>-240.0562438964844</v>
+        <v>-0.4286718641008649</v>
       </c>
       <c r="G285" t="b">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>31680</v>
       </c>
       <c r="E286" t="n">
-        <v>140.6548614501953</v>
+        <v>0.2511693954467774</v>
       </c>
       <c r="F286" t="n">
-        <v>-242.1078491210938</v>
+        <v>-0.432335444859096</v>
       </c>
       <c r="G286" t="b">
         <v>0</v>
@@ -8754,10 +8754,10 @@
         <v>31781</v>
       </c>
       <c r="E287" t="n">
-        <v>137.7093963623047</v>
+        <v>0.2459096363612584</v>
       </c>
       <c r="F287" t="n">
-        <v>-243.7952270507812</v>
+        <v>-0.4353486197335379</v>
       </c>
       <c r="G287" t="b">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>31898</v>
       </c>
       <c r="E288" t="n">
-        <v>134.3134765625</v>
+        <v>0.2398454938616071</v>
       </c>
       <c r="F288" t="n">
-        <v>-245.6825103759766</v>
+        <v>-0.4387187685285296</v>
       </c>
       <c r="G288" t="b">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>32014</v>
       </c>
       <c r="E289" t="n">
-        <v>130.8102722167969</v>
+        <v>0.2335897718157087</v>
       </c>
       <c r="F289" t="n">
-        <v>-247.5654754638672</v>
+        <v>-0.4420812061854771</v>
       </c>
       <c r="G289" t="b">
         <v>0</v>
@@ -8841,10 +8841,10 @@
         <v>32115</v>
       </c>
       <c r="E290" t="n">
-        <v>127.6180191040039</v>
+        <v>0.2278893198285784</v>
       </c>
       <c r="F290" t="n">
-        <v>-249.22607421875</v>
+        <v>-0.4450465611049107</v>
       </c>
       <c r="G290" t="b">
         <v>0</v>
@@ -8870,10 +8870,10 @@
         <v>32232</v>
       </c>
       <c r="E291" t="n">
-        <v>123.8581466674805</v>
+        <v>0.2211752619062151</v>
       </c>
       <c r="F291" t="n">
-        <v>-251.1158294677734</v>
+        <v>-0.4484211240495954</v>
       </c>
       <c r="G291" t="b">
         <v>0</v>
@@ -8899,10 +8899,10 @@
         <v>32348</v>
       </c>
       <c r="E292" t="n">
-        <v>120.1452484130859</v>
+        <v>0.2145450864519392</v>
       </c>
       <c r="F292" t="n">
-        <v>-252.9132537841797</v>
+        <v>-0.4516308103288923</v>
       </c>
       <c r="G292" t="b">
         <v>0</v>
@@ -8928,10 +8928,10 @@
         <v>32449</v>
       </c>
       <c r="E293" t="n">
-        <v>116.9954147338867</v>
+        <v>0.2089203834533691</v>
       </c>
       <c r="F293" t="n">
-        <v>-254.3856964111328</v>
+        <v>-0.4542601721627372</v>
       </c>
       <c r="G293" t="b">
         <v>0</v>
@@ -8957,10 +8957,10 @@
         <v>32566</v>
       </c>
       <c r="E294" t="n">
-        <v>113.3644409179688</v>
+        <v>0.2024365016392299</v>
       </c>
       <c r="F294" t="n">
-        <v>-256.0244445800781</v>
+        <v>-0.4571865081787109</v>
       </c>
       <c r="G294" t="b">
         <v>0</v>
@@ -8986,10 +8986,10 @@
         <v>32682</v>
       </c>
       <c r="E295" t="n">
-        <v>109.7908248901367</v>
+        <v>0.1960550444466727</v>
       </c>
       <c r="F295" t="n">
-        <v>-257.5771179199219</v>
+        <v>-0.4599591391427176</v>
       </c>
       <c r="G295" t="b">
         <v>0</v>
@@ -9015,10 +9015,10 @@
         <v>32783</v>
       </c>
       <c r="E296" t="n">
-        <v>106.2748107910156</v>
+        <v>0.1897764478410993</v>
       </c>
       <c r="F296" t="n">
-        <v>-259.0475769042969</v>
+        <v>-0.462584958757673</v>
       </c>
       <c r="G296" t="b">
         <v>0</v>
@@ -9044,10 +9044,10 @@
         <v>32900</v>
       </c>
       <c r="E297" t="n">
-        <v>102.7642288208008</v>
+        <v>0.1835075514657157</v>
       </c>
       <c r="F297" t="n">
-        <v>-260.460205078125</v>
+        <v>-0.4651075090680803</v>
       </c>
       <c r="G297" t="b">
         <v>0</v>
@@ -9073,10 +9073,10 @@
         <v>33017</v>
       </c>
       <c r="E298" t="n">
-        <v>99.04342651367188</v>
+        <v>0.1768632616315569</v>
       </c>
       <c r="F298" t="n">
-        <v>-261.8976745605469</v>
+        <v>-0.4676744188581194</v>
       </c>
       <c r="G298" t="b">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>33133</v>
       </c>
       <c r="E299" t="n">
-        <v>95.12002563476562</v>
+        <v>0.16985718863351</v>
       </c>
       <c r="F299" t="n">
-        <v>-263.3480224609375</v>
+        <v>-0.4702643258231027</v>
       </c>
       <c r="G299" t="b">
         <v>0</v>
@@ -9131,10 +9131,10 @@
         <v>33234</v>
       </c>
       <c r="E300" t="n">
-        <v>91.78141784667969</v>
+        <v>0.163895389011928</v>
       </c>
       <c r="F300" t="n">
-        <v>-264.5300903320312</v>
+        <v>-0.4723751613071986</v>
       </c>
       <c r="G300" t="b">
         <v>0</v>
@@ -9160,10 +9160,10 @@
         <v>33351</v>
       </c>
       <c r="E301" t="n">
-        <v>87.93151092529297</v>
+        <v>0.1570205552237375</v>
       </c>
       <c r="F301" t="n">
-        <v>-265.8346252441406</v>
+        <v>-0.4747046879359654</v>
       </c>
       <c r="G301" t="b">
         <v>0</v>
@@ -9189,10 +9189,10 @@
         <v>33467</v>
       </c>
       <c r="E302" t="n">
-        <v>83.95518493652344</v>
+        <v>0.1499199731009347</v>
       </c>
       <c r="F302" t="n">
-        <v>-267.1170654296875</v>
+        <v>-0.4769947596958705</v>
       </c>
       <c r="G302" t="b">
         <v>0</v>
@@ -9218,10 +9218,10 @@
         <v>33568</v>
       </c>
       <c r="E303" t="n">
-        <v>80.38385009765625</v>
+        <v>0.1435425894601005</v>
       </c>
       <c r="F303" t="n">
-        <v>-268.2134094238281</v>
+        <v>-0.4789525168282645</v>
       </c>
       <c r="G303" t="b">
         <v>0</v>
@@ -9247,10 +9247,10 @@
         <v>33685</v>
       </c>
       <c r="E304" t="n">
-        <v>76.21400451660156</v>
+        <v>0.1360964366367885</v>
       </c>
       <c r="F304" t="n">
-        <v>-269.427978515625</v>
+        <v>-0.4811213902064732</v>
       </c>
       <c r="G304" t="b">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>33801</v>
       </c>
       <c r="E305" t="n">
-        <v>72.10425567626953</v>
+        <v>0.1287575994219099</v>
       </c>
       <c r="F305" t="n">
-        <v>-270.5567626953125</v>
+        <v>-0.4831370762416294</v>
       </c>
       <c r="G305" t="b">
         <v>0</v>
@@ -9305,10 +9305,10 @@
         <v>33902</v>
       </c>
       <c r="E306" t="n">
-        <v>68.60304260253906</v>
+        <v>0.1225054332188198</v>
       </c>
       <c r="F306" t="n">
-        <v>-271.4656982421875</v>
+        <v>-0.4847601754324777</v>
       </c>
       <c r="G306" t="b">
         <v>0</v>
@@ -9334,10 +9334,10 @@
         <v>34019</v>
       </c>
       <c r="E307" t="n">
-        <v>64.33026123046875</v>
+        <v>0.1148754664829799</v>
       </c>
       <c r="F307" t="n">
-        <v>-272.5098266601562</v>
+        <v>-0.4866246904645647</v>
       </c>
       <c r="G307" t="b">
         <v>0</v>
@@ -9363,10 +9363,10 @@
         <v>34135</v>
       </c>
       <c r="E308" t="n">
-        <v>59.85988998413086</v>
+        <v>0.106892660685948</v>
       </c>
       <c r="F308" t="n">
-        <v>-273.5265808105469</v>
+        <v>-0.4884403228759766</v>
       </c>
       <c r="G308" t="b">
         <v>0</v>
@@ -9392,10 +9392,10 @@
         <v>34236</v>
       </c>
       <c r="E309" t="n">
-        <v>56.02695083618164</v>
+        <v>0.1000481264931815</v>
       </c>
       <c r="F309" t="n">
-        <v>-274.3373413085938</v>
+        <v>-0.4898881094796317</v>
       </c>
       <c r="G309" t="b">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>34353</v>
       </c>
       <c r="E310" t="n">
-        <v>51.61074447631836</v>
+        <v>0.09216204370771136</v>
       </c>
       <c r="F310" t="n">
-        <v>-275.2023315429688</v>
+        <v>-0.4914327348981585</v>
       </c>
       <c r="G310" t="b">
         <v>0</v>
@@ -9450,10 +9450,10 @@
         <v>34469</v>
       </c>
       <c r="E311" t="n">
-        <v>47.25453948974609</v>
+        <v>0.08438310623168946</v>
       </c>
       <c r="F311" t="n">
-        <v>-275.9837341308594</v>
+        <v>-0.4928280966622489</v>
       </c>
       <c r="G311" t="b">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>34570</v>
       </c>
       <c r="E312" t="n">
-        <v>43.56093215942383</v>
+        <v>0.07778737885611398</v>
       </c>
       <c r="F312" t="n">
-        <v>-276.5907592773438</v>
+        <v>-0.4939120701381138</v>
       </c>
       <c r="G312" t="b">
         <v>0</v>
@@ -9508,10 +9508,10 @@
         <v>34687</v>
       </c>
       <c r="E313" t="n">
-        <v>39.31501007080078</v>
+        <v>0.07020537512642996</v>
       </c>
       <c r="F313" t="n">
-        <v>-277.2261352539062</v>
+        <v>-0.4950466700962612</v>
       </c>
       <c r="G313" t="b">
         <v>0</v>
@@ -9537,10 +9537,10 @@
         <v>34803</v>
       </c>
       <c r="E314" t="n">
-        <v>35.13722229003906</v>
+        <v>0.06274503980364118</v>
       </c>
       <c r="F314" t="n">
-        <v>-277.7865600585938</v>
+        <v>-0.4960474286760603</v>
       </c>
       <c r="G314" t="b">
         <v>0</v>
@@ -9566,10 +9566,10 @@
         <v>34904</v>
       </c>
       <c r="E315" t="n">
-        <v>31.6091423034668</v>
+        <v>0.05644489697047642</v>
       </c>
       <c r="F315" t="n">
-        <v>-278.2100830078125</v>
+        <v>-0.496803719656808</v>
       </c>
       <c r="G315" t="b">
         <v>0</v>
@@ -9595,10 +9595,10 @@
         <v>35021</v>
       </c>
       <c r="E316" t="n">
-        <v>27.55912971496582</v>
+        <v>0.04921273163386754</v>
       </c>
       <c r="F316" t="n">
-        <v>-278.6404418945312</v>
+        <v>-0.4975722176688058</v>
       </c>
       <c r="G316" t="b">
         <v>0</v>
@@ -9624,10 +9624,10 @@
         <v>35138</v>
       </c>
       <c r="E317" t="n">
-        <v>23.58803749084473</v>
+        <v>0.04212149551936558</v>
       </c>
       <c r="F317" t="n">
-        <v>-279.004638671875</v>
+        <v>-0.4982225690569196</v>
       </c>
       <c r="G317" t="b">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>35254</v>
       </c>
       <c r="E318" t="n">
-        <v>19.69271278381348</v>
+        <v>0.03516555854252407</v>
       </c>
       <c r="F318" t="n">
-        <v>-279.306640625</v>
+        <v>-0.4987618582589285</v>
       </c>
       <c r="G318" t="b">
         <v>0</v>
@@ -9682,10 +9682,10 @@
         <v>35355</v>
       </c>
       <c r="E319" t="n">
-        <v>16.41677856445312</v>
+        <v>0.02931567600795201</v>
       </c>
       <c r="F319" t="n">
-        <v>-279.518310546875</v>
+        <v>-0.4991398402622768</v>
       </c>
       <c r="G319" t="b">
         <v>0</v>
@@ -9711,10 +9711,10 @@
         <v>35472</v>
       </c>
       <c r="E320" t="n">
-        <v>12.66927433013916</v>
+        <v>0.02262370416096279</v>
       </c>
       <c r="F320" t="n">
-        <v>-279.7131958007812</v>
+        <v>-0.4994878496442522</v>
       </c>
       <c r="G320" t="b">
         <v>0</v>
@@ -9740,10 +9740,10 @@
         <v>35588</v>
       </c>
       <c r="E321" t="n">
-        <v>9.013889312744141</v>
+        <v>0.01609623091561454</v>
       </c>
       <c r="F321" t="n">
-        <v>-279.8548583984375</v>
+        <v>-0.4997408185686384</v>
       </c>
       <c r="G321" t="b">
         <v>0</v>
@@ -9769,10 +9769,10 @@
         <v>35689</v>
       </c>
       <c r="E322" t="n">
-        <v>5.932999610900879</v>
+        <v>0.010594642162323</v>
       </c>
       <c r="F322" t="n">
-        <v>-279.9371337890625</v>
+        <v>-0.4998877389090402</v>
       </c>
       <c r="G322" t="b">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>35806</v>
       </c>
       <c r="E323" t="n">
-        <v>2.182730436325073</v>
+        <v>0.003897732922009059</v>
       </c>
       <c r="F323" t="n">
-        <v>-279.9915161132812</v>
+        <v>-0.4999848502022879</v>
       </c>
       <c r="G323" t="b">
         <v>0</v>
@@ -9827,10 +9827,10 @@
         <v>35922</v>
       </c>
       <c r="E324" t="n">
-        <v>-1.843502998352051</v>
+        <v>-0.003291969639914376</v>
       </c>
       <c r="F324" t="n">
-        <v>-279.9939270019531</v>
+        <v>-0.4999891553606306</v>
       </c>
       <c r="G324" t="b">
         <v>0</v>
@@ -9856,10 +9856,10 @@
         <v>36023</v>
       </c>
       <c r="E325" t="n">
-        <v>-5.337963104248047</v>
+        <v>-0.009532076971871513</v>
       </c>
       <c r="F325" t="n">
-        <v>-279.9491271972656</v>
+        <v>-0.4999091557094029</v>
       </c>
       <c r="G325" t="b">
         <v>0</v>
@@ -9885,10 +9885,10 @@
         <v>36140</v>
       </c>
       <c r="E326" t="n">
-        <v>-9.34282398223877</v>
+        <v>-0.0166836142539978</v>
       </c>
       <c r="F326" t="n">
-        <v>-279.8440856933594</v>
+        <v>-0.4997215815952846</v>
       </c>
       <c r="G326" t="b">
         <v>0</v>
@@ -9914,10 +9914,10 @@
         <v>36256</v>
       </c>
       <c r="E327" t="n">
-        <v>-13.26028156280518</v>
+        <v>-0.02367907421929496</v>
       </c>
       <c r="F327" t="n">
-        <v>-279.6858520507812</v>
+        <v>-0.4994390215192522</v>
       </c>
       <c r="G327" t="b">
         <v>0</v>
@@ -9943,10 +9943,10 @@
         <v>36357</v>
       </c>
       <c r="E328" t="n">
-        <v>-16.61997032165527</v>
+        <v>-0.02967851843152727</v>
       </c>
       <c r="F328" t="n">
-        <v>-279.5063171386719</v>
+        <v>-0.499118423461914</v>
       </c>
       <c r="G328" t="b">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>36474</v>
       </c>
       <c r="E329" t="n">
-        <v>-20.76542091369629</v>
+        <v>-0.03708110877445766</v>
       </c>
       <c r="F329" t="n">
-        <v>-279.2289428710938</v>
+        <v>-0.4986231122698103</v>
       </c>
       <c r="G329" t="b">
         <v>0</v>
@@ -10001,10 +10001,10 @@
         <v>36590</v>
       </c>
       <c r="E330" t="n">
-        <v>-25.08842658996582</v>
+        <v>-0.04480076176779611</v>
       </c>
       <c r="F330" t="n">
-        <v>-278.8737487792969</v>
+        <v>-0.4979888371058873</v>
       </c>
       <c r="G330" t="b">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>36691</v>
       </c>
       <c r="E331" t="n">
-        <v>-28.74761962890625</v>
+        <v>-0.0513350350516183</v>
       </c>
       <c r="F331" t="n">
-        <v>-278.5203247070312</v>
+        <v>-0.4973577226911272</v>
       </c>
       <c r="G331" t="b">
         <v>0</v>
@@ -10059,10 +10059,10 @@
         <v>36808</v>
       </c>
       <c r="E332" t="n">
-        <v>-32.93814468383789</v>
+        <v>-0.05881811550685338</v>
       </c>
       <c r="F332" t="n">
-        <v>-278.0558776855469</v>
+        <v>-0.4965283530099051</v>
       </c>
       <c r="G332" t="b">
         <v>0</v>
@@ -10088,10 +10088,10 @@
         <v>36924</v>
       </c>
       <c r="E333" t="n">
-        <v>-37.0698356628418</v>
+        <v>-0.06619613511221749</v>
       </c>
       <c r="F333" t="n">
-        <v>-277.5352783203125</v>
+        <v>-0.4955987112862723</v>
       </c>
       <c r="G333" t="b">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>37025</v>
       </c>
       <c r="E334" t="n">
-        <v>-40.7303581237793</v>
+        <v>-0.07273278236389161</v>
       </c>
       <c r="F334" t="n">
-        <v>-277.021728515625</v>
+        <v>-0.4946816580636161</v>
       </c>
       <c r="G334" t="b">
         <v>0</v>
@@ -10146,10 +10146,10 @@
         <v>37142</v>
       </c>
       <c r="E335" t="n">
-        <v>-45.18408966064453</v>
+        <v>-0.08068587439400809</v>
       </c>
       <c r="F335" t="n">
-        <v>-276.3302307128906</v>
+        <v>-0.4934468405587333</v>
       </c>
       <c r="G335" t="b">
         <v>0</v>
@@ -10175,10 +10175,10 @@
         <v>37259</v>
       </c>
       <c r="E336" t="n">
-        <v>-49.62195205688477</v>
+        <v>-0.08861062867300851</v>
       </c>
       <c r="F336" t="n">
-        <v>-275.56787109375</v>
+        <v>-0.4920854840959821</v>
       </c>
       <c r="G336" t="b">
         <v>0</v>
@@ -10204,10 +10204,10 @@
         <v>37375</v>
       </c>
       <c r="E337" t="n">
-        <v>-53.97406005859375</v>
+        <v>-0.09638225010463169</v>
       </c>
       <c r="F337" t="n">
-        <v>-274.7485961914062</v>
+        <v>-0.4906224931989397</v>
       </c>
       <c r="G337" t="b">
         <v>0</v>
@@ -10233,10 +10233,10 @@
         <v>37476</v>
       </c>
       <c r="E338" t="n">
-        <v>-57.63544845581055</v>
+        <v>-0.1029204436710903</v>
       </c>
       <c r="F338" t="n">
-        <v>-274.0039367675781</v>
+        <v>-0.4892927442278181</v>
       </c>
       <c r="G338" t="b">
         <v>0</v>
@@ -10262,10 +10262,10 @@
         <v>37593</v>
       </c>
       <c r="E339" t="n">
-        <v>-61.88811874389648</v>
+        <v>-0.110514497756958</v>
       </c>
       <c r="F339" t="n">
-        <v>-273.0748291015625</v>
+        <v>-0.4876336233956473</v>
       </c>
       <c r="G339" t="b">
         <v>0</v>
@@ -10291,10 +10291,10 @@
         <v>37709</v>
       </c>
       <c r="E340" t="n">
-        <v>-66.30789184570312</v>
+        <v>-0.1184069497244699</v>
       </c>
       <c r="F340" t="n">
-        <v>-272.035400390625</v>
+        <v>-0.4857775006975447</v>
       </c>
       <c r="G340" t="b">
         <v>0</v>
@@ -10320,10 +10320,10 @@
         <v>37810</v>
       </c>
       <c r="E341" t="n">
-        <v>-70.13778686523438</v>
+        <v>-0.1252460479736328</v>
       </c>
       <c r="F341" t="n">
-        <v>-271.0732421875</v>
+        <v>-0.4840593610491071</v>
       </c>
       <c r="G341" t="b">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>37927</v>
       </c>
       <c r="E342" t="n">
-        <v>-74.52632904052734</v>
+        <v>-0.1330827304295131</v>
       </c>
       <c r="F342" t="n">
-        <v>-269.899658203125</v>
+        <v>-0.4819636753627232</v>
       </c>
       <c r="G342" t="b">
         <v>0</v>
@@ -10378,10 +10378,10 @@
         <v>38043</v>
       </c>
       <c r="E343" t="n">
-        <v>-78.82418060302734</v>
+        <v>-0.1407574653625488</v>
       </c>
       <c r="F343" t="n">
-        <v>-268.6759338378906</v>
+        <v>-0.4797784532819476</v>
       </c>
       <c r="G343" t="b">
         <v>0</v>
@@ -10407,10 +10407,10 @@
         <v>38144</v>
       </c>
       <c r="E344" t="n">
-        <v>-82.437744140625</v>
+        <v>-0.1472102573939732</v>
       </c>
       <c r="F344" t="n">
-        <v>-267.5892639160156</v>
+        <v>-0.4778379712785993</v>
       </c>
       <c r="G344" t="b">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>38261</v>
       </c>
       <c r="E345" t="n">
-        <v>-86.56649780273438</v>
+        <v>-0.1545830317905971</v>
       </c>
       <c r="F345" t="n">
-        <v>-266.2822570800781</v>
+        <v>-0.4755040305001395</v>
       </c>
       <c r="G345" t="b">
         <v>0</v>
@@ -10465,10 +10465,10 @@
         <v>38377</v>
       </c>
       <c r="E346" t="n">
-        <v>-90.60250854492188</v>
+        <v>-0.1617901938302176</v>
       </c>
       <c r="F346" t="n">
-        <v>-264.9361572265625</v>
+        <v>-0.4731002807617187</v>
       </c>
       <c r="G346" t="b">
         <v>0</v>
@@ -10494,10 +10494,10 @@
         <v>38478</v>
       </c>
       <c r="E347" t="n">
-        <v>-93.98159790039062</v>
+        <v>-0.1678242819649833</v>
       </c>
       <c r="F347" t="n">
-        <v>-263.7564392089844</v>
+        <v>-0.470993641444615</v>
       </c>
       <c r="G347" t="b">
         <v>0</v>
@@ -10523,10 +10523,10 @@
         <v>38595</v>
       </c>
       <c r="E348" t="n">
-        <v>-97.83549499511719</v>
+        <v>-0.1747062410627093</v>
       </c>
       <c r="F348" t="n">
-        <v>-262.351318359375</v>
+        <v>-0.4684844970703125</v>
       </c>
       <c r="G348" t="b">
         <v>0</v>
@@ -10552,10 +10552,10 @@
         <v>38711</v>
       </c>
       <c r="E349" t="n">
-        <v>-101.703742980957</v>
+        <v>-0.181613826751709</v>
       </c>
       <c r="F349" t="n">
-        <v>-260.8761291503906</v>
+        <v>-0.4658502306256975</v>
       </c>
       <c r="G349" t="b">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>38812</v>
       </c>
       <c r="E350" t="n">
-        <v>-105.1633377075195</v>
+        <v>-0.1877916744777134</v>
       </c>
       <c r="F350" t="n">
-        <v>-259.5007934570312</v>
+        <v>-0.4633942740304129</v>
       </c>
       <c r="G350" t="b">
         <v>0</v>
@@ -10610,10 +10610,10 @@
         <v>38929</v>
       </c>
       <c r="E351" t="n">
-        <v>-109.1753158569336</v>
+        <v>-0.1949559211730957</v>
       </c>
       <c r="F351" t="n">
-        <v>-257.838623046875</v>
+        <v>-0.4604261125837054</v>
       </c>
       <c r="G351" t="b">
         <v>0</v>
@@ -10639,10 +10639,10 @@
         <v>39045</v>
       </c>
       <c r="E352" t="n">
-        <v>-113.0880966186523</v>
+        <v>-0.2019430296761649</v>
       </c>
       <c r="F352" t="n">
-        <v>-256.1466064453125</v>
+        <v>-0.4574046543666295</v>
       </c>
       <c r="G352" t="b">
         <v>0</v>
@@ -10668,10 +10668,10 @@
         <v>39146</v>
       </c>
       <c r="E353" t="n">
-        <v>-116.3626022338867</v>
+        <v>-0.2077903611319406</v>
       </c>
       <c r="F353" t="n">
-        <v>-254.6757659912109</v>
+        <v>-0.4547781535557338</v>
       </c>
       <c r="G353" t="b">
         <v>0</v>
@@ -10697,10 +10697,10 @@
         <v>39263</v>
       </c>
       <c r="E354" t="n">
-        <v>-120.0815200805664</v>
+        <v>-0.2144312858581543</v>
       </c>
       <c r="F354" t="n">
-        <v>-252.9435272216797</v>
+        <v>-0.4516848700387137</v>
       </c>
       <c r="G354" t="b">
         <v>0</v>
@@ -10726,10 +10726,10 @@
         <v>39379</v>
       </c>
       <c r="E355" t="n">
-        <v>-123.7031555175781</v>
+        <v>-0.2208984919956752</v>
       </c>
       <c r="F355" t="n">
-        <v>-251.1922149658203</v>
+        <v>-0.4485575267246791</v>
       </c>
       <c r="G355" t="b">
         <v>0</v>
@@ -10755,10 +10755,10 @@
         <v>39480</v>
       </c>
       <c r="E356" t="n">
-        <v>-126.7291793823242</v>
+        <v>-0.2263021060398647</v>
       </c>
       <c r="F356" t="n">
-        <v>-249.6792297363281</v>
+        <v>-0.4458557673863002</v>
       </c>
       <c r="G356" t="b">
         <v>0</v>
@@ -10784,10 +10784,10 @@
         <v>39597</v>
       </c>
       <c r="E357" t="n">
-        <v>-130.1568298339844</v>
+        <v>-0.2324229104178293</v>
       </c>
       <c r="F357" t="n">
-        <v>-247.90966796875</v>
+        <v>-0.4426958356584821</v>
       </c>
       <c r="G357" t="b">
         <v>0</v>
@@ -10813,10 +10813,10 @@
         <v>39714</v>
       </c>
       <c r="E358" t="n">
-        <v>-133.4822082519531</v>
+        <v>-0.238361086164202</v>
       </c>
       <c r="F358" t="n">
-        <v>-246.1351318359375</v>
+        <v>-0.4395270211356027</v>
       </c>
       <c r="G358" t="b">
         <v>0</v>
@@ -10842,10 +10842,10 @@
         <v>39830</v>
       </c>
       <c r="E359" t="n">
-        <v>-136.7037353515625</v>
+        <v>-0.2441138131277902</v>
       </c>
       <c r="F359" t="n">
-        <v>-244.3605804443359</v>
+        <v>-0.4363581793648856</v>
       </c>
       <c r="G359" t="b">
         <v>0</v>
@@ -10871,10 +10871,10 @@
         <v>39931</v>
       </c>
       <c r="E360" t="n">
-        <v>-139.3839111328125</v>
+        <v>-0.2488998413085937</v>
       </c>
       <c r="F360" t="n">
-        <v>-242.8417663574219</v>
+        <v>-0.4336460113525391</v>
       </c>
       <c r="G360" t="b">
         <v>0</v>
@@ -10900,10 +10900,10 @@
         <v>40048</v>
       </c>
       <c r="E361" t="n">
-        <v>-142.4151458740234</v>
+        <v>-0.2543127604893275</v>
       </c>
       <c r="F361" t="n">
-        <v>-241.0765991210938</v>
+        <v>-0.4304939270019531</v>
       </c>
       <c r="G361" t="b">
         <v>0</v>
@@ -10929,10 +10929,10 @@
         <v>40164</v>
       </c>
       <c r="E362" t="n">
-        <v>-145.3450622558594</v>
+        <v>-0.2595447540283203</v>
       </c>
       <c r="F362" t="n">
-        <v>-239.3215484619141</v>
+        <v>-0.4273599079677037</v>
       </c>
       <c r="G362" t="b">
         <v>0</v>
@@ -10958,10 +10958,10 @@
         <v>40265</v>
       </c>
       <c r="E363" t="n">
-        <v>-147.8082885742188</v>
+        <v>-0.263943372453962</v>
       </c>
       <c r="F363" t="n">
-        <v>-237.8081512451172</v>
+        <v>-0.4246574129377093</v>
       </c>
       <c r="G363" t="b">
         <v>0</v>
@@ -10987,10 +10987,10 @@
         <v>40382</v>
       </c>
       <c r="E364" t="n">
-        <v>-150.8497924804688</v>
+        <v>-0.2693746294294085</v>
       </c>
       <c r="F364" t="n">
-        <v>-235.8905334472656</v>
+        <v>-0.4212330954415457</v>
       </c>
       <c r="G364" t="b">
         <v>0</v>
@@ -11016,10 +11016,10 @@
         <v>40498</v>
       </c>
       <c r="E365" t="n">
-        <v>-154.1088562011719</v>
+        <v>-0.2751943860735212</v>
       </c>
       <c r="F365" t="n">
-        <v>-233.7743988037109</v>
+        <v>-0.4174542835780553</v>
       </c>
       <c r="G365" t="b">
         <v>0</v>
@@ -11045,10 +11045,10 @@
         <v>40599</v>
       </c>
       <c r="E366" t="n">
-        <v>-156.90234375</v>
+        <v>-0.2801827566964286</v>
       </c>
       <c r="F366" t="n">
-        <v>-231.9087219238281</v>
+        <v>-0.4141227177211216</v>
       </c>
       <c r="G366" t="b">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>40716</v>
       </c>
       <c r="E367" t="n">
-        <v>-160.0604858398438</v>
+        <v>-0.2858222961425781</v>
       </c>
       <c r="F367" t="n">
-        <v>-229.7403564453125</v>
+        <v>-0.4102506365094866</v>
       </c>
       <c r="G367" t="b">
         <v>0</v>
@@ -11103,10 +11103,10 @@
         <v>40832</v>
       </c>
       <c r="E368" t="n">
-        <v>-163.1252899169922</v>
+        <v>-0.2912951605660575</v>
       </c>
       <c r="F368" t="n">
-        <v>-227.574462890625</v>
+        <v>-0.4063829694475447</v>
       </c>
       <c r="G368" t="b">
         <v>0</v>
@@ -11132,10 +11132,10 @@
         <v>40933</v>
       </c>
       <c r="E369" t="n">
-        <v>-165.8108978271484</v>
+        <v>-0.2960908889770508</v>
       </c>
       <c r="F369" t="n">
-        <v>-225.625244140625</v>
+        <v>-0.4029022216796875</v>
       </c>
       <c r="G369" t="b">
         <v>0</v>
@@ -11161,10 +11161,10 @@
         <v>41050</v>
       </c>
       <c r="E370" t="n">
-        <v>-169.5572662353516</v>
+        <v>-0.3027808325631278</v>
       </c>
       <c r="F370" t="n">
-        <v>-222.8235473632812</v>
+        <v>-0.3978991917201451</v>
       </c>
       <c r="G370" t="b">
         <v>0</v>
@@ -11190,10 +11190,10 @@
         <v>41166</v>
       </c>
       <c r="E371" t="n">
-        <v>-172.7565307617188</v>
+        <v>-0.3084938049316406</v>
       </c>
       <c r="F371" t="n">
-        <v>-220.3524169921875</v>
+        <v>-0.3934864589146205</v>
       </c>
       <c r="G371" t="b">
         <v>0</v>
@@ -11219,10 +11219,10 @@
         <v>41267</v>
       </c>
       <c r="E372" t="n">
-        <v>-175.4191589355469</v>
+        <v>-0.3132484980991909</v>
       </c>
       <c r="F372" t="n">
-        <v>-218.2386627197266</v>
+        <v>-0.3897118977137974</v>
       </c>
       <c r="G372" t="b">
         <v>0</v>
@@ -11248,10 +11248,10 @@
         <v>41384</v>
       </c>
       <c r="E373" t="n">
-        <v>-178.4275512695312</v>
+        <v>-0.3186206272670201</v>
       </c>
       <c r="F373" t="n">
-        <v>-215.7860260009766</v>
+        <v>-0.3853321892874582</v>
       </c>
       <c r="G373" t="b">
         <v>0</v>
@@ -11277,10 +11277,10 @@
         <v>41500</v>
       </c>
       <c r="E374" t="n">
-        <v>-181.3506164550781</v>
+        <v>-0.3238403865269252</v>
       </c>
       <c r="F374" t="n">
-        <v>-213.3352966308594</v>
+        <v>-0.3809558868408203</v>
       </c>
       <c r="G374" t="b">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>41601</v>
       </c>
       <c r="E375" t="n">
-        <v>-183.9242095947266</v>
+        <v>-0.3284360885620117</v>
       </c>
       <c r="F375" t="n">
-        <v>-211.1205596923828</v>
+        <v>-0.3770009994506836</v>
       </c>
       <c r="G375" t="b">
         <v>0</v>
@@ -11335,10 +11335,10 @@
         <v>41718</v>
       </c>
       <c r="E376" t="n">
-        <v>-187.0595245361328</v>
+        <v>-0.3340348652430943</v>
       </c>
       <c r="F376" t="n">
-        <v>-208.34765625</v>
+        <v>-0.3720493861607143</v>
       </c>
       <c r="G376" t="b">
         <v>0</v>
@@ -11364,10 +11364,10 @@
         <v>41835</v>
       </c>
       <c r="E377" t="n">
-        <v>-190.1288909912109</v>
+        <v>-0.3395158767700195</v>
       </c>
       <c r="F377" t="n">
-        <v>-205.5505065917969</v>
+        <v>-0.3670544760567802</v>
       </c>
       <c r="G377" t="b">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>41951</v>
       </c>
       <c r="E378" t="n">
-        <v>-193.09375</v>
+        <v>-0.3448102678571429</v>
       </c>
       <c r="F378" t="n">
-        <v>-202.7678527832031</v>
+        <v>-0.362085451398577</v>
       </c>
       <c r="G378" t="b">
         <v>0</v>
@@ -11422,10 +11422,10 @@
         <v>42052</v>
       </c>
       <c r="E379" t="n">
-        <v>-195.5522155761719</v>
+        <v>-0.3492003849574498</v>
       </c>
       <c r="F379" t="n">
-        <v>-200.3979339599609</v>
+        <v>-0.3578534534999303</v>
       </c>
       <c r="G379" t="b">
         <v>0</v>
@@ -11451,10 +11451,10 @@
         <v>42169</v>
       </c>
       <c r="E380" t="n">
-        <v>-198.3251342773438</v>
+        <v>-0.3541520254952567</v>
       </c>
       <c r="F380" t="n">
-        <v>-197.6540832519531</v>
+        <v>-0.3529537200927734</v>
       </c>
       <c r="G380" t="b">
         <v>0</v>
@@ -11480,10 +11480,10 @@
         <v>42285</v>
       </c>
       <c r="E381" t="n">
-        <v>-201.0620880126953</v>
+        <v>-0.359039442879813</v>
       </c>
       <c r="F381" t="n">
-        <v>-194.8692779541016</v>
+        <v>-0.3479808534894671</v>
       </c>
       <c r="G381" t="b">
         <v>0</v>
@@ -11509,10 +11509,10 @@
         <v>42386</v>
       </c>
       <c r="E382" t="n">
-        <v>-203.4642486572266</v>
+        <v>-0.3633290154593332</v>
       </c>
       <c r="F382" t="n">
-        <v>-192.3598022460938</v>
+        <v>-0.3434996468680245</v>
       </c>
       <c r="G382" t="b">
         <v>0</v>
@@ -11538,10 +11538,10 @@
         <v>42503</v>
       </c>
       <c r="E383" t="n">
-        <v>-206.2259979248047</v>
+        <v>-0.3682607105800084</v>
       </c>
       <c r="F383" t="n">
-        <v>-189.3959503173828</v>
+        <v>-0.3382070541381836</v>
       </c>
       <c r="G383" t="b">
         <v>0</v>
@@ -11567,10 +11567,10 @@
         <v>42619</v>
       </c>
       <c r="E384" t="n">
-        <v>-208.8849945068359</v>
+        <v>-0.373008918762207</v>
       </c>
       <c r="F384" t="n">
-        <v>-186.4592590332031</v>
+        <v>-0.3329629625592913</v>
       </c>
       <c r="G384" t="b">
         <v>0</v>
@@ -11596,10 +11596,10 @@
         <v>42720</v>
       </c>
       <c r="E385" t="n">
-        <v>-211.0869293212891</v>
+        <v>-0.3769409452165876</v>
       </c>
       <c r="F385" t="n">
-        <v>-183.9627685546875</v>
+        <v>-0.3285049438476563</v>
       </c>
       <c r="G385" t="b">
         <v>0</v>
@@ -11625,10 +11625,10 @@
         <v>42837</v>
       </c>
       <c r="E386" t="n">
-        <v>-213.5593414306641</v>
+        <v>-0.3813559668404715</v>
       </c>
       <c r="F386" t="n">
-        <v>-181.0867309570312</v>
+        <v>-0.3233691624232701</v>
       </c>
       <c r="G386" t="b">
         <v>0</v>
@@ -11654,10 +11654,10 @@
         <v>42953</v>
       </c>
       <c r="E387" t="n">
-        <v>-215.9379425048828</v>
+        <v>-0.3856034687587193</v>
       </c>
       <c r="F387" t="n">
-        <v>-178.2436981201172</v>
+        <v>-0.3182923180716378</v>
       </c>
       <c r="G387" t="b">
         <v>0</v>
@@ -11683,10 +11683,10 @@
         <v>43054</v>
       </c>
       <c r="E388" t="n">
-        <v>-218.0039520263672</v>
+        <v>-0.3892927714756557</v>
       </c>
       <c r="F388" t="n">
-        <v>-175.7108001708984</v>
+        <v>-0.3137692860194615</v>
       </c>
       <c r="G388" t="b">
         <v>0</v>
@@ -11712,10 +11712,10 @@
         <v>43171</v>
       </c>
       <c r="E389" t="n">
-        <v>-220.5376129150391</v>
+        <v>-0.3938171659197126</v>
       </c>
       <c r="F389" t="n">
-        <v>-172.5200347900391</v>
+        <v>-0.3080714906964983</v>
       </c>
       <c r="G389" t="b">
         <v>0</v>
@@ -11741,10 +11741,10 @@
         <v>43287</v>
       </c>
       <c r="E390" t="n">
-        <v>-223.1481628417969</v>
+        <v>-0.3984788622174944</v>
       </c>
       <c r="F390" t="n">
-        <v>-169.1297912597656</v>
+        <v>-0.3020174843924386</v>
       </c>
       <c r="G390" t="b">
         <v>0</v>
@@ -11770,10 +11770,10 @@
         <v>43388</v>
       </c>
       <c r="E391" t="n">
-        <v>-225.3235168457031</v>
+        <v>-0.4023634229387556</v>
       </c>
       <c r="F391" t="n">
-        <v>-166.2206878662109</v>
+        <v>-0.2968226569039481</v>
       </c>
       <c r="G391" t="b">
         <v>0</v>
@@ -11799,10 +11799,10 @@
         <v>43505</v>
       </c>
       <c r="E392" t="n">
-        <v>-227.7720031738281</v>
+        <v>-0.4067357199532645</v>
       </c>
       <c r="F392" t="n">
-        <v>-162.8493957519531</v>
+        <v>-0.290802492414202</v>
       </c>
       <c r="G392" t="b">
         <v>0</v>
@@ -11828,10 +11828,10 @@
         <v>43621</v>
       </c>
       <c r="E393" t="n">
-        <v>-230.1226348876953</v>
+        <v>-0.4109332765851702</v>
       </c>
       <c r="F393" t="n">
-        <v>-159.5104064941406</v>
+        <v>-0.2848400115966797</v>
       </c>
       <c r="G393" t="b">
         <v>0</v>
@@ -11857,10 +11857,10 @@
         <v>43722</v>
       </c>
       <c r="E394" t="n">
-        <v>-232.0538330078125</v>
+        <v>-0.4143818446568081</v>
       </c>
       <c r="F394" t="n">
-        <v>-156.6876678466797</v>
+        <v>-0.2797994068690708</v>
       </c>
       <c r="G394" t="b">
         <v>0</v>
@@ -11886,10 +11886,10 @@
         <v>43839</v>
       </c>
       <c r="E395" t="n">
-        <v>-234.2672729492188</v>
+        <v>-0.4183344159807478</v>
       </c>
       <c r="F395" t="n">
-        <v>-153.3585052490234</v>
+        <v>-0.2738544736589704</v>
       </c>
       <c r="G395" t="b">
         <v>0</v>
@@ -11915,10 +11915,10 @@
         <v>43956</v>
       </c>
       <c r="E396" t="n">
-        <v>-236.4796905517578</v>
+        <v>-0.4222851616995675</v>
       </c>
       <c r="F396" t="n">
-        <v>-149.9244689941406</v>
+        <v>-0.2677222660609654</v>
       </c>
       <c r="G396" t="b">
         <v>0</v>
@@ -11944,10 +11944,10 @@
         <v>44072</v>
       </c>
       <c r="E397" t="n">
-        <v>-238.6093139648438</v>
+        <v>-0.4260880606515067</v>
       </c>
       <c r="F397" t="n">
-        <v>-146.5113983154297</v>
+        <v>-0.2616274969918387</v>
       </c>
       <c r="G397" t="b">
         <v>0</v>
@@ -11973,10 +11973,10 @@
         <v>44173</v>
       </c>
       <c r="E398" t="n">
-        <v>-240.3556060791016</v>
+        <v>-0.4292064394269671</v>
       </c>
       <c r="F398" t="n">
-        <v>-143.6286315917969</v>
+        <v>-0.2564796992710658</v>
       </c>
       <c r="G398" t="b">
         <v>0</v>
@@ -12002,10 +12002,10 @@
         <v>44290</v>
       </c>
       <c r="E399" t="n">
-        <v>-242.3076171875</v>
+        <v>-0.4326921735491072</v>
       </c>
       <c r="F399" t="n">
-        <v>-140.3104400634766</v>
+        <v>-0.2505543572562082</v>
       </c>
       <c r="G399" t="b">
         <v>0</v>
@@ -12031,10 +12031,10 @@
         <v>44406</v>
       </c>
       <c r="E400" t="n">
-        <v>-244.2415008544922</v>
+        <v>-0.4361455372401646</v>
       </c>
       <c r="F400" t="n">
-        <v>-136.9163818359375</v>
+        <v>-0.2444935389927455</v>
       </c>
       <c r="G400" t="b">
         <v>0</v>
@@ -12060,10 +12060,10 @@
         <v>44507</v>
       </c>
       <c r="E401" t="n">
-        <v>-245.9566497802734</v>
+        <v>-0.4392083031790597</v>
       </c>
       <c r="F401" t="n">
-        <v>-133.8108215332031</v>
+        <v>-0.2389478955950056</v>
       </c>
       <c r="G401" t="b">
         <v>0</v>
@@ -12089,10 +12089,10 @@
         <v>44624</v>
       </c>
       <c r="E402" t="n">
-        <v>-247.9708099365234</v>
+        <v>-0.4428050177437918</v>
       </c>
       <c r="F402" t="n">
-        <v>-130.0402374267578</v>
+        <v>-0.232214709690639</v>
       </c>
       <c r="G402" t="b">
         <v>0</v>
@@ -12118,10 +12118,10 @@
         <v>44740</v>
       </c>
       <c r="E403" t="n">
-        <v>-249.8917541503906</v>
+        <v>-0.4462352752685547</v>
       </c>
       <c r="F403" t="n">
-        <v>-126.3096084594727</v>
+        <v>-0.2255528722490583</v>
       </c>
       <c r="G403" t="b">
         <v>0</v>
@@ -12147,10 +12147,10 @@
         <v>44841</v>
       </c>
       <c r="E404" t="n">
-        <v>-251.4659729003906</v>
+        <v>-0.449046380179269</v>
       </c>
       <c r="F404" t="n">
-        <v>-123.1456832885742</v>
+        <v>-0.219903005872454</v>
       </c>
       <c r="G404" t="b">
         <v>0</v>
@@ -12176,10 +12176,10 @@
         <v>44958</v>
       </c>
       <c r="E405" t="n">
-        <v>-253.2150726318359</v>
+        <v>-0.4521697725568499</v>
       </c>
       <c r="F405" t="n">
-        <v>-119.5079116821289</v>
+        <v>-0.2134069851466588</v>
       </c>
       <c r="G405" t="b">
         <v>0</v>
@@ -12205,10 +12205,10 @@
         <v>45074</v>
       </c>
       <c r="E406" t="n">
-        <v>-254.8731842041016</v>
+        <v>-0.4551306860787528</v>
       </c>
       <c r="F406" t="n">
-        <v>-115.9295196533203</v>
+        <v>-0.2070169993809291</v>
       </c>
       <c r="G406" t="b">
         <v>0</v>
@@ -12234,10 +12234,10 @@
         <v>45175</v>
       </c>
       <c r="E407" t="n">
-        <v>-256.2248840332031</v>
+        <v>-0.457544435773577</v>
       </c>
       <c r="F407" t="n">
-        <v>-112.9106369018555</v>
+        <v>-0.2016261373247419</v>
       </c>
       <c r="G407" t="b">
         <v>0</v>
@@ -12263,10 +12263,10 @@
         <v>45292</v>
       </c>
       <c r="E408" t="n">
-        <v>-257.7565307617188</v>
+        <v>-0.4602795192173549</v>
       </c>
       <c r="F408" t="n">
-        <v>-109.3690032958984</v>
+        <v>-0.1953017915998186</v>
       </c>
       <c r="G408" t="b">
         <v>0</v>
@@ -12292,10 +12292,10 @@
         <v>45408</v>
       </c>
       <c r="E409" t="n">
-        <v>-259.3252563476562</v>
+        <v>-0.463080814906529</v>
       </c>
       <c r="F409" t="n">
-        <v>-105.5955810546875</v>
+        <v>-0.1885635375976563</v>
       </c>
       <c r="G409" t="b">
         <v>0</v>
@@ -12321,10 +12321,10 @@
         <v>45509</v>
       </c>
       <c r="E410" t="n">
-        <v>-260.6432495117188</v>
+        <v>-0.4654343741280692</v>
       </c>
       <c r="F410" t="n">
-        <v>-102.2990188598633</v>
+        <v>-0.182676819392613</v>
       </c>
       <c r="G410" t="b">
         <v>0</v>
@@ -12350,10 +12350,10 @@
         <v>45626</v>
       </c>
       <c r="E411" t="n">
-        <v>-262.09619140625</v>
+        <v>-0.4680289132254464</v>
       </c>
       <c r="F411" t="n">
-        <v>-98.51695251464844</v>
+        <v>-0.1759231294904436</v>
       </c>
       <c r="G411" t="b">
         <v>0</v>
@@ -12379,10 +12379,10 @@
         <v>45742</v>
       </c>
       <c r="E412" t="n">
-        <v>-263.4652709960938</v>
+        <v>-0.4704736982073103</v>
       </c>
       <c r="F412" t="n">
-        <v>-94.79484558105469</v>
+        <v>-0.1692765099661691</v>
       </c>
       <c r="G412" t="b">
         <v>0</v>
@@ -12408,10 +12408,10 @@
         <v>45843</v>
       </c>
       <c r="E413" t="n">
-        <v>-264.5704956054688</v>
+        <v>-0.4724473135811942</v>
       </c>
       <c r="F413" t="n">
-        <v>-91.6649169921875</v>
+        <v>-0.1636873517717634</v>
       </c>
       <c r="G413" t="b">
         <v>0</v>
@@ -12437,10 +12437,10 @@
         <v>45960</v>
       </c>
       <c r="E414" t="n">
-        <v>-265.7883911132812</v>
+        <v>-0.4746221269880022</v>
       </c>
       <c r="F414" t="n">
-        <v>-88.07115936279297</v>
+        <v>-0.1572699274335589</v>
       </c>
       <c r="G414" t="b">
         <v>0</v>
@@ -12466,10 +12466,10 @@
         <v>46076</v>
       </c>
       <c r="E415" t="n">
-        <v>-266.9914855957031</v>
+        <v>-0.476770509992327</v>
       </c>
       <c r="F415" t="n">
-        <v>-84.35369873046875</v>
+        <v>-0.150631604875837</v>
       </c>
       <c r="G415" t="b">
         <v>0</v>
@@ -12495,10 +12495,10 @@
         <v>46177</v>
       </c>
       <c r="E416" t="n">
-        <v>-268.0415344238281</v>
+        <v>-0.4786455971854074</v>
       </c>
       <c r="F416" t="n">
-        <v>-80.95510101318359</v>
+        <v>-0.144562680380685</v>
       </c>
       <c r="G416" t="b">
         <v>0</v>
@@ -12524,10 +12524,10 @@
         <v>46294</v>
       </c>
       <c r="E417" t="n">
-        <v>-269.2172546386719</v>
+        <v>-0.4807450975690569</v>
       </c>
       <c r="F417" t="n">
-        <v>-76.95504760742188</v>
+        <v>-0.1374197278703962</v>
       </c>
       <c r="G417" t="b">
         <v>0</v>
@@ -12553,10 +12553,10 @@
         <v>46411</v>
       </c>
       <c r="E418" t="n">
-        <v>-270.2823181152344</v>
+        <v>-0.4826469966343471</v>
       </c>
       <c r="F418" t="n">
-        <v>-73.12637329101562</v>
+        <v>-0.1305828094482422</v>
       </c>
       <c r="G418" t="b">
         <v>0</v>
@@ -12582,10 +12582,10 @@
         <v>46527</v>
       </c>
       <c r="E419" t="n">
-        <v>-271.2718505859375</v>
+        <v>-0.4844140189034598</v>
       </c>
       <c r="F419" t="n">
-        <v>-69.365478515625</v>
+        <v>-0.1238669259207589</v>
       </c>
       <c r="G419" t="b">
         <v>0</v>
@@ -12611,10 +12611,10 @@
         <v>46628</v>
       </c>
       <c r="E420" t="n">
-        <v>-272.1166076660156</v>
+        <v>-0.4859225136893136</v>
       </c>
       <c r="F420" t="n">
-        <v>-65.97382354736328</v>
+        <v>-0.1178103991917201</v>
       </c>
       <c r="G420" t="b">
         <v>0</v>
@@ -12640,10 +12640,10 @@
         <v>46745</v>
       </c>
       <c r="E421" t="n">
-        <v>-272.9945678710938</v>
+        <v>-0.4874902997698103</v>
       </c>
       <c r="F421" t="n">
-        <v>-62.24120330810547</v>
+        <v>-0.1111450059073312</v>
       </c>
       <c r="G421" t="b">
         <v>0</v>
@@ -12669,10 +12669,10 @@
         <v>46861</v>
       </c>
       <c r="E422" t="n">
-        <v>-273.7912902832031</v>
+        <v>-0.4889130183628627</v>
       </c>
       <c r="F422" t="n">
-        <v>-58.63726425170898</v>
+        <v>-0.1047094004494803</v>
       </c>
       <c r="G422" t="b">
         <v>0</v>
@@ -12698,10 +12698,10 @@
         <v>46962</v>
       </c>
       <c r="E423" t="n">
-        <v>-274.4187622070312</v>
+        <v>-0.4900335039411272</v>
       </c>
       <c r="F423" t="n">
-        <v>-55.62679290771484</v>
+        <v>-0.0993335587637765</v>
       </c>
       <c r="G423" t="b">
         <v>0</v>
@@ -12727,10 +12727,10 @@
         <v>47079</v>
       </c>
       <c r="E424" t="n">
-        <v>-275.1380615234375</v>
+        <v>-0.4913179670061384</v>
       </c>
       <c r="F424" t="n">
-        <v>-51.95241165161133</v>
+        <v>-0.09277216366359166</v>
       </c>
       <c r="G424" t="b">
         <v>0</v>
@@ -12756,10 +12756,10 @@
         <v>47195</v>
       </c>
       <c r="E425" t="n">
-        <v>-275.85595703125</v>
+        <v>-0.4925999232700893</v>
       </c>
       <c r="F425" t="n">
-        <v>-47.99474716186523</v>
+        <v>-0.08570490564618792</v>
       </c>
       <c r="G425" t="b">
         <v>0</v>
@@ -12785,10 +12785,10 @@
         <v>47296</v>
       </c>
       <c r="E426" t="n">
-        <v>-276.430908203125</v>
+        <v>-0.4936266217912946</v>
       </c>
       <c r="F426" t="n">
-        <v>-44.56398391723633</v>
+        <v>-0.07957854270935058</v>
       </c>
       <c r="G426" t="b">
         <v>0</v>
@@ -12814,10 +12814,10 @@
         <v>47413</v>
       </c>
       <c r="E427" t="n">
-        <v>-277.0323181152344</v>
+        <v>-0.4947005680629185</v>
       </c>
       <c r="F427" t="n">
-        <v>-40.65839385986328</v>
+        <v>-0.07260427474975586</v>
       </c>
       <c r="G427" t="b">
         <v>0</v>
@@ -12843,10 +12843,10 @@
         <v>47529</v>
       </c>
       <c r="E428" t="n">
-        <v>-277.5625610351562</v>
+        <v>-0.4956474304199219</v>
       </c>
       <c r="F428" t="n">
-        <v>-36.86478042602539</v>
+        <v>-0.06582996504647391</v>
       </c>
       <c r="G428" t="b">
         <v>0</v>
@@ -12872,10 +12872,10 @@
         <v>47630</v>
       </c>
       <c r="E429" t="n">
-        <v>-277.9774780273438</v>
+        <v>-0.4963883536202567</v>
       </c>
       <c r="F429" t="n">
-        <v>-33.59326934814453</v>
+        <v>-0.05998798097882952</v>
       </c>
       <c r="G429" t="b">
         <v>0</v>
@@ -12901,10 +12901,10 @@
         <v>47747</v>
       </c>
       <c r="E430" t="n">
-        <v>-278.43896484375</v>
+        <v>-0.4972124372209821</v>
       </c>
       <c r="F430" t="n">
-        <v>-29.52526473999023</v>
+        <v>-0.05272368703569685</v>
       </c>
       <c r="G430" t="b">
         <v>0</v>
@@ -12930,10 +12930,10 @@
         <v>47863</v>
       </c>
       <c r="E431" t="n">
-        <v>-278.8464965820312</v>
+        <v>-0.4979401724679129</v>
       </c>
       <c r="F431" t="n">
-        <v>-25.38984298706055</v>
+        <v>-0.04533900533403669</v>
       </c>
       <c r="G431" t="b">
         <v>0</v>
@@ -12959,10 +12959,10 @@
         <v>47964</v>
       </c>
       <c r="E432" t="n">
-        <v>-279.1404418945312</v>
+        <v>-0.498465074811663</v>
       </c>
       <c r="F432" t="n">
-        <v>-21.92306327819824</v>
+        <v>-0.03914832728249686</v>
       </c>
       <c r="G432" t="b">
         <v>0</v>
@@ -12988,10 +12988,10 @@
         <v>48081</v>
       </c>
       <c r="E433" t="n">
-        <v>-279.4219665527344</v>
+        <v>-0.4989677974155971</v>
       </c>
       <c r="F433" t="n">
-        <v>-17.98213577270508</v>
+        <v>-0.03211095673697335</v>
       </c>
       <c r="G433" t="b">
         <v>0</v>
@@ -13017,10 +13017,10 @@
         <v>48197</v>
       </c>
       <c r="E434" t="n">
-        <v>-279.6419677734375</v>
+        <v>-0.4993606567382812</v>
       </c>
       <c r="F434" t="n">
-        <v>-14.15538024902344</v>
+        <v>-0.02527746473039899</v>
       </c>
       <c r="G434" t="b">
         <v>0</v>
@@ -13046,10 +13046,10 @@
         <v>48298</v>
       </c>
       <c r="E435" t="n">
-        <v>-279.784912109375</v>
+        <v>-0.4996159144810268</v>
       </c>
       <c r="F435" t="n">
-        <v>-10.97218704223633</v>
+        <v>-0.01959319114685059</v>
       </c>
       <c r="G435" t="b">
         <v>0</v>
@@ -13075,10 +13075,10 @@
         <v>48415</v>
       </c>
       <c r="E436" t="n">
-        <v>-279.9030151367188</v>
+        <v>-0.4998268127441406</v>
       </c>
       <c r="F436" t="n">
-        <v>-7.36828088760376</v>
+        <v>-0.01315764444214957</v>
       </c>
       <c r="G436" t="b">
         <v>0</v>
@@ -13104,10 +13104,10 @@
         <v>48532</v>
       </c>
       <c r="E437" t="n">
-        <v>-279.9730529785156</v>
+        <v>-0.4999518803187779</v>
       </c>
       <c r="F437" t="n">
-        <v>-3.885310888290405</v>
+        <v>-0.006938055157661438</v>
       </c>
       <c r="G437" t="b">
         <v>0</v>
@@ -13133,10 +13133,10 @@
         <v>48648</v>
       </c>
       <c r="E438" t="n">
-        <v>-279.9994812011719</v>
+        <v>-0.4999990735735212</v>
       </c>
       <c r="F438" t="n">
-        <v>-0.5319225192070007</v>
+        <v>-0.0009498616414410728</v>
       </c>
       <c r="G438" t="b">
         <v>0</v>
@@ -13162,10 +13162,10 @@
         <v>48749</v>
       </c>
       <c r="E439" t="n">
-        <v>-279.9909973144531</v>
+        <v>-0.4999839237758091</v>
       </c>
       <c r="F439" t="n">
-        <v>2.245909452438354</v>
+        <v>0.004010552593639919</v>
       </c>
       <c r="G439" t="b">
         <v>0</v>
@@ -13191,10 +13191,10 @@
         <v>48866</v>
       </c>
       <c r="E440" t="n">
-        <v>-279.9486389160156</v>
+        <v>-0.4999082837785993</v>
       </c>
       <c r="F440" t="n">
-        <v>5.363240718841553</v>
+        <v>0.009577215569359915</v>
       </c>
       <c r="G440" t="b">
         <v>0</v>
@@ -13220,10 +13220,10 @@
         <v>48982</v>
       </c>
       <c r="E441" t="n">
-        <v>-279.8754577636719</v>
+        <v>-0.4997776031494141</v>
       </c>
       <c r="F441" t="n">
-        <v>8.349774360656738</v>
+        <v>0.0149103113583156</v>
       </c>
       <c r="G441" t="b">
         <v>0</v>
@@ -13249,10 +13249,10 @@
         <v>49083</v>
       </c>
       <c r="E442" t="n">
-        <v>-279.7905578613281</v>
+        <v>-0.4996259961809431</v>
       </c>
       <c r="F442" t="n">
-        <v>10.82787227630615</v>
+        <v>0.01933548620768956</v>
       </c>
       <c r="G442" t="b">
         <v>0</v>
@@ -13278,10 +13278,10 @@
         <v>49200</v>
       </c>
       <c r="E443" t="n">
-        <v>-279.652099609375</v>
+        <v>-0.4993787493024553</v>
       </c>
       <c r="F443" t="n">
-        <v>13.95382595062256</v>
+        <v>0.02491754634039743</v>
       </c>
       <c r="G443" t="b">
         <v>0</v>
@@ -13307,10 +13307,10 @@
         <v>49316</v>
       </c>
       <c r="E444" t="n">
-        <v>-279.4250793457031</v>
+        <v>-0.4989733559744698</v>
       </c>
       <c r="F444" t="n">
-        <v>17.93378448486328</v>
+        <v>0.03202461515154157</v>
       </c>
       <c r="G444" t="b">
         <v>0</v>
@@ -13336,10 +13336,10 @@
         <v>49417</v>
       </c>
       <c r="E445" t="n">
-        <v>-279.1980895996094</v>
+        <v>-0.4985680171421596</v>
       </c>
       <c r="F445" t="n">
-        <v>21.17583847045898</v>
+        <v>0.03781399726867676</v>
       </c>
       <c r="G445" t="b">
         <v>0</v>
@@ -13365,10 +13365,10 @@
         <v>49534</v>
       </c>
       <c r="E446" t="n">
-        <v>-278.8662109375</v>
+        <v>-0.4979753766741071</v>
       </c>
       <c r="F446" t="n">
-        <v>25.17240142822266</v>
+        <v>0.04495071683611188</v>
       </c>
       <c r="G446" t="b">
         <v>0</v>
@@ -13394,10 +13394,10 @@
         <v>49650</v>
       </c>
       <c r="E447" t="n">
-        <v>-278.4822998046875</v>
+        <v>-0.4972898210797991</v>
       </c>
       <c r="F447" t="n">
-        <v>29.11382484436035</v>
+        <v>0.05198897293635777</v>
       </c>
       <c r="G447" t="b">
         <v>0</v>
@@ -13423,10 +13423,10 @@
         <v>49751</v>
       </c>
       <c r="E448" t="n">
-        <v>-278.1195068359375</v>
+        <v>-0.4966419764927456</v>
       </c>
       <c r="F448" t="n">
-        <v>32.39641952514648</v>
+        <v>0.05785074915204729</v>
       </c>
       <c r="G448" t="b">
         <v>0</v>
@@ -13452,10 +13452,10 @@
         <v>49868</v>
       </c>
       <c r="E449" t="n">
-        <v>-277.6623840332031</v>
+        <v>-0.495825685773577</v>
       </c>
       <c r="F449" t="n">
-        <v>36.10543060302734</v>
+        <v>0.06447398321969168</v>
       </c>
       <c r="G449" t="b">
         <v>0</v>
@@ -13481,10 +13481,10 @@
         <v>49984</v>
       </c>
       <c r="E450" t="n">
-        <v>-277.1575012207031</v>
+        <v>-0.4949241093226842</v>
       </c>
       <c r="F450" t="n">
-        <v>39.79601669311523</v>
+        <v>0.07106431552342006</v>
       </c>
       <c r="G450" t="b">
         <v>0</v>
@@ -13510,10 +13510,10 @@
         <v>50085</v>
       </c>
       <c r="E451" t="n">
-        <v>-276.6527709960938</v>
+        <v>-0.4940228053501674</v>
       </c>
       <c r="F451" t="n">
-        <v>43.16523742675781</v>
+        <v>0.07708078111921038</v>
       </c>
       <c r="G451" t="b">
         <v>0</v>
@@ -13539,10 +13539,10 @@
         <v>50202</v>
       </c>
       <c r="E452" t="n">
-        <v>-275.9786987304688</v>
+        <v>-0.4928191048758371</v>
       </c>
       <c r="F452" t="n">
-        <v>47.28362274169922</v>
+        <v>0.08443504061017718</v>
       </c>
       <c r="G452" t="b">
         <v>0</v>
@@ -13568,10 +13568,10 @@
         <v>50318</v>
       </c>
       <c r="E453" t="n">
-        <v>-275.2570190429688</v>
+        <v>-0.4915303911481585</v>
       </c>
       <c r="F453" t="n">
-        <v>51.31829452514648</v>
+        <v>0.09163981165204729</v>
       </c>
       <c r="G453" t="b">
         <v>0</v>
@@ -13597,10 +13597,10 @@
         <v>50419</v>
       </c>
       <c r="E454" t="n">
-        <v>-274.6160583496094</v>
+        <v>-0.4903858184814453</v>
       </c>
       <c r="F454" t="n">
-        <v>54.6444206237793</v>
+        <v>0.09757932254246303</v>
       </c>
       <c r="G454" t="b">
         <v>0</v>
@@ -13626,10 +13626,10 @@
         <v>50536</v>
       </c>
       <c r="E455" t="n">
-        <v>-273.8166198730469</v>
+        <v>-0.488958249773298</v>
       </c>
       <c r="F455" t="n">
-        <v>58.51887512207031</v>
+        <v>0.1044979912894113</v>
       </c>
       <c r="G455" t="b">
         <v>0</v>
@@ -13655,10 +13655,10 @@
         <v>50652</v>
       </c>
       <c r="E456" t="n">
-        <v>-272.9053649902344</v>
+        <v>-0.4873310089111328</v>
       </c>
       <c r="F456" t="n">
-        <v>62.63108444213867</v>
+        <v>0.1118412222181048</v>
       </c>
       <c r="G456" t="b">
         <v>0</v>
@@ -13684,10 +13684,10 @@
         <v>50753</v>
       </c>
       <c r="E457" t="n">
-        <v>-272.0541687011719</v>
+        <v>-0.4858110155378069</v>
       </c>
       <c r="F457" t="n">
-        <v>66.23087310791016</v>
+        <v>0.1182694162641253</v>
       </c>
       <c r="G457" t="b">
         <v>0</v>
@@ -13713,10 +13713,10 @@
         <v>50870</v>
       </c>
       <c r="E458" t="n">
-        <v>-270.9827575683594</v>
+        <v>-0.4838977813720703</v>
       </c>
       <c r="F458" t="n">
-        <v>70.48647308349609</v>
+        <v>0.1258687019348144</v>
       </c>
       <c r="G458" t="b">
         <v>0</v>
@@ -13742,10 +13742,10 @@
         <v>50987</v>
       </c>
       <c r="E459" t="n">
-        <v>-269.8078918457031</v>
+        <v>-0.481799806867327</v>
       </c>
       <c r="F459" t="n">
-        <v>74.85801696777344</v>
+        <v>0.1336750302995954</v>
       </c>
       <c r="G459" t="b">
         <v>0</v>
@@ -13771,10 +13771,10 @@
         <v>51103</v>
       </c>
       <c r="E460" t="n">
-        <v>-268.53564453125</v>
+        <v>-0.4795279366629464</v>
       </c>
       <c r="F460" t="n">
-        <v>79.30068969726562</v>
+        <v>0.1416083744594029</v>
       </c>
       <c r="G460" t="b">
         <v>0</v>
@@ -13800,10 +13800,10 @@
         <v>51204</v>
       </c>
       <c r="E461" t="n">
-        <v>-267.3753051757812</v>
+        <v>-0.4774559020996094</v>
       </c>
       <c r="F461" t="n">
-        <v>83.12911987304688</v>
+        <v>0.1484448569161551</v>
       </c>
       <c r="G461" t="b">
         <v>0</v>
@@ -13829,10 +13829,10 @@
         <v>51321</v>
       </c>
       <c r="E462" t="n">
-        <v>-265.9569091796875</v>
+        <v>-0.4749230521065848</v>
       </c>
       <c r="F462" t="n">
-        <v>87.56094360351562</v>
+        <v>0.1563588278634208</v>
       </c>
       <c r="G462" t="b">
         <v>0</v>
@@ -13858,10 +13858,10 @@
         <v>51437</v>
       </c>
       <c r="E463" t="n">
-        <v>-264.4876708984375</v>
+        <v>-0.4722994123186384</v>
       </c>
       <c r="F463" t="n">
-        <v>91.903564453125</v>
+        <v>0.1641135079520089</v>
       </c>
       <c r="G463" t="b">
         <v>0</v>
@@ -13887,10 +13887,10 @@
         <v>51538</v>
       </c>
       <c r="E464" t="n">
-        <v>-263.2018127441406</v>
+        <v>-0.4700032370431083</v>
       </c>
       <c r="F464" t="n">
-        <v>95.52384948730469</v>
+        <v>0.1705783026559012</v>
       </c>
       <c r="G464" t="b">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>51655</v>
       </c>
       <c r="E465" t="n">
-        <v>-261.6858825683594</v>
+        <v>-0.4672962188720703</v>
       </c>
       <c r="F465" t="n">
-        <v>99.6016845703125</v>
+        <v>0.1778601510184152</v>
       </c>
       <c r="G465" t="b">
         <v>0</v>
@@ -13945,10 +13945,10 @@
         <v>51771</v>
       </c>
       <c r="E466" t="n">
-        <v>-260.1566467285156</v>
+        <v>-0.4645654405866351</v>
       </c>
       <c r="F466" t="n">
-        <v>103.5302658081055</v>
+        <v>0.1848754746573312</v>
       </c>
       <c r="G466" t="b">
         <v>0</v>
@@ -13974,10 +13974,10 @@
         <v>51872</v>
       </c>
       <c r="E467" t="n">
-        <v>-258.8314819335938</v>
+        <v>-0.4621990748814174</v>
       </c>
       <c r="F467" t="n">
-        <v>106.8001403808594</v>
+        <v>0.1907145363943917</v>
       </c>
       <c r="G467" t="b">
         <v>0</v>
@@ -14003,10 +14003,10 @@
         <v>51989</v>
       </c>
       <c r="E468" t="n">
-        <v>-257.1996459960938</v>
+        <v>-0.4592850821358817</v>
       </c>
       <c r="F468" t="n">
-        <v>110.6722412109375</v>
+        <v>0.1976290021623884</v>
       </c>
       <c r="G468" t="b">
         <v>0</v>
@@ -14032,10 +14032,10 @@
         <v>52105</v>
       </c>
       <c r="E469" t="n">
-        <v>-255.4687652587891</v>
+        <v>-0.456194223676409</v>
       </c>
       <c r="F469" t="n">
-        <v>114.6111450195312</v>
+        <v>0.2046627589634487</v>
       </c>
       <c r="G469" t="b">
         <v>0</v>
@@ -14061,10 +14061,10 @@
         <v>52206</v>
       </c>
       <c r="E470" t="n">
-        <v>-253.9467468261719</v>
+        <v>-0.4534763336181641</v>
       </c>
       <c r="F470" t="n">
-        <v>117.9451065063477</v>
+        <v>0.210616261618478</v>
       </c>
       <c r="G470" t="b">
         <v>0</v>
@@ -14090,10 +14090,10 @@
         <v>52323</v>
       </c>
       <c r="E471" t="n">
-        <v>-252.3447723388672</v>
+        <v>-0.4506156648908343</v>
       </c>
       <c r="F471" t="n">
-        <v>121.3347625732422</v>
+        <v>0.2166692188807896</v>
       </c>
       <c r="G471" t="b">
         <v>0</v>
@@ -14119,10 +14119,10 @@
         <v>52439</v>
       </c>
       <c r="E472" t="n">
-        <v>-250.8051452636719</v>
+        <v>-0.4478663308279855</v>
       </c>
       <c r="F472" t="n">
-        <v>124.486083984375</v>
+        <v>0.2222965785435268</v>
       </c>
       <c r="G472" t="b">
         <v>0</v>
@@ -14148,10 +14148,10 @@
         <v>52540</v>
       </c>
       <c r="E473" t="n">
-        <v>-248.8561401367188</v>
+        <v>-0.4443859645298549</v>
       </c>
       <c r="F473" t="n">
-        <v>128.3379364013672</v>
+        <v>0.2291748864310128</v>
       </c>
       <c r="G473" t="b">
         <v>0</v>
@@ -14177,10 +14177,10 @@
         <v>52657</v>
       </c>
       <c r="E474" t="n">
-        <v>-246.8753662109375</v>
+        <v>-0.440848868233817</v>
       </c>
       <c r="F474" t="n">
-        <v>132.1081085205078</v>
+        <v>0.235907336643764</v>
       </c>
       <c r="G474" t="b">
         <v>0</v>
@@ -14206,10 +14206,10 @@
         <v>52773</v>
       </c>
       <c r="E475" t="n">
-        <v>-244.8524169921875</v>
+        <v>-0.4372364589146205</v>
       </c>
       <c r="F475" t="n">
-        <v>135.8208618164062</v>
+        <v>0.2425372532435826</v>
       </c>
       <c r="G475" t="b">
         <v>0</v>
@@ -14235,10 +14235,10 @@
         <v>52874</v>
       </c>
       <c r="E476" t="n">
-        <v>-243.0609588623047</v>
+        <v>-0.4340374265398298</v>
       </c>
       <c r="F476" t="n">
-        <v>139.0013580322266</v>
+        <v>0.2482167107718332</v>
       </c>
       <c r="G476" t="b">
         <v>0</v>
@@ -14264,10 +14264,10 @@
         <v>52991</v>
       </c>
       <c r="E477" t="n">
-        <v>-240.972900390625</v>
+        <v>-0.4303087506975447</v>
       </c>
       <c r="F477" t="n">
-        <v>142.5904998779297</v>
+        <v>0.2546258926391601</v>
       </c>
       <c r="G477" t="b">
         <v>0</v>
@@ -14293,10 +14293,10 @@
         <v>53108</v>
       </c>
       <c r="E478" t="n">
-        <v>-238.8708038330078</v>
+        <v>-0.4265550068446568</v>
       </c>
       <c r="F478" t="n">
-        <v>146.0846862792969</v>
+        <v>0.2608655112130301</v>
       </c>
       <c r="G478" t="b">
         <v>0</v>
@@ -14322,10 +14322,10 @@
         <v>53224</v>
       </c>
       <c r="E479" t="n">
-        <v>-236.7695617675781</v>
+        <v>-0.4228027888706752</v>
       </c>
       <c r="F479" t="n">
-        <v>149.46630859375</v>
+        <v>0.2669041224888393</v>
       </c>
       <c r="G479" t="b">
         <v>0</v>
@@ -14351,10 +14351,10 @@
         <v>53325</v>
       </c>
       <c r="E480" t="n">
-        <v>-234.9347229003906</v>
+        <v>-0.4195262908935547</v>
       </c>
       <c r="F480" t="n">
-        <v>152.3340759277344</v>
+        <v>0.2720251355852399</v>
       </c>
       <c r="G480" t="b">
         <v>0</v>
@@ -14380,10 +14380,10 @@
         <v>53442</v>
       </c>
       <c r="E481" t="n">
-        <v>-232.6264801025391</v>
+        <v>-0.415404428754534</v>
       </c>
       <c r="F481" t="n">
-        <v>155.8361968994141</v>
+        <v>0.2782789230346679</v>
       </c>
       <c r="G481" t="b">
         <v>0</v>
@@ -14409,10 +14409,10 @@
         <v>53558</v>
       </c>
       <c r="E482" t="n">
-        <v>-230.2182464599609</v>
+        <v>-0.4111040115356445</v>
       </c>
       <c r="F482" t="n">
-        <v>159.3723754882812</v>
+        <v>0.2845935276576451</v>
       </c>
       <c r="G482" t="b">
         <v>0</v>
@@ -14438,10 +14438,10 @@
         <v>53659</v>
       </c>
       <c r="E483" t="n">
-        <v>-228.1587982177734</v>
+        <v>-0.4074264253888811</v>
       </c>
       <c r="F483" t="n">
-        <v>162.3070068359375</v>
+        <v>0.2898339407784598</v>
       </c>
       <c r="G483" t="b">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>53776</v>
       </c>
       <c r="E484" t="n">
-        <v>-225.7635650634766</v>
+        <v>-0.4031492233276367</v>
       </c>
       <c r="F484" t="n">
-        <v>165.6225280761719</v>
+        <v>0.2957545144217355</v>
       </c>
       <c r="G484" t="b">
         <v>0</v>
@@ -14496,10 +14496,10 @@
         <v>53892</v>
       </c>
       <c r="E485" t="n">
-        <v>-223.2530364990234</v>
+        <v>-0.398666136605399</v>
       </c>
       <c r="F485" t="n">
-        <v>168.9913330078125</v>
+        <v>0.3017702375139509</v>
       </c>
       <c r="G485" t="b">
         <v>0</v>
@@ -14525,10 +14525,10 @@
         <v>53993</v>
       </c>
       <c r="E486" t="n">
-        <v>-220.94677734375</v>
+        <v>-0.3945478166852678</v>
       </c>
       <c r="F486" t="n">
-        <v>171.9957275390625</v>
+        <v>0.3071352277483259</v>
       </c>
       <c r="G486" t="b">
         <v>0</v>
@@ -14554,10 +14554,10 @@
         <v>54110</v>
       </c>
       <c r="E487" t="n">
-        <v>-218.1537017822266</v>
+        <v>-0.389560181753976</v>
       </c>
       <c r="F487" t="n">
-        <v>175.5248107910156</v>
+        <v>0.3134371621268136</v>
       </c>
       <c r="G487" t="b">
         <v>0</v>
@@ -14583,10 +14583,10 @@
         <v>54226</v>
       </c>
       <c r="E488" t="n">
-        <v>-215.3657836914062</v>
+        <v>-0.3845817565917969</v>
       </c>
       <c r="F488" t="n">
-        <v>178.9345855712891</v>
+        <v>0.3195260456630162</v>
       </c>
       <c r="G488" t="b">
         <v>0</v>
@@ -14612,10 +14612,10 @@
         <v>54327</v>
       </c>
       <c r="E489" t="n">
-        <v>-212.9756622314453</v>
+        <v>-0.3803136825561523</v>
       </c>
       <c r="F489" t="n">
-        <v>181.7728424072266</v>
+        <v>0.324594361441476</v>
       </c>
       <c r="G489" t="b">
         <v>0</v>
@@ -14641,10 +14641,10 @@
         <v>54444</v>
       </c>
       <c r="E490" t="n">
-        <v>-210.0440063476562</v>
+        <v>-0.3750785827636719</v>
       </c>
       <c r="F490" t="n">
-        <v>185.1526794433594</v>
+        <v>0.3306297847202846</v>
       </c>
       <c r="G490" t="b">
         <v>0</v>
@@ -14670,10 +14670,10 @@
         <v>54560</v>
       </c>
       <c r="E491" t="n">
-        <v>-206.9320983886719</v>
+        <v>-0.3695216042654855</v>
       </c>
       <c r="F491" t="n">
-        <v>188.6242065429688</v>
+        <v>0.3368289402553014</v>
       </c>
       <c r="G491" t="b">
         <v>0</v>
@@ -14699,10 +14699,10 @@
         <v>54661</v>
       </c>
       <c r="E492" t="n">
-        <v>-204.2271270751953</v>
+        <v>-0.3646912983485631</v>
       </c>
       <c r="F492" t="n">
-        <v>191.5497131347656</v>
+        <v>0.3420530591692243</v>
       </c>
       <c r="G492" t="b">
         <v>0</v>
@@ -14728,10 +14728,10 @@
         <v>54778</v>
       </c>
       <c r="E493" t="n">
-        <v>-201.0776519775391</v>
+        <v>-0.3590672356741769</v>
       </c>
       <c r="F493" t="n">
-        <v>194.8532257080078</v>
+        <v>0.3479521887642997</v>
       </c>
       <c r="G493" t="b">
         <v>0</v>
@@ -14757,10 +14757,10 @@
         <v>54894</v>
       </c>
       <c r="E494" t="n">
-        <v>-197.9375457763672</v>
+        <v>-0.3534599031720843</v>
       </c>
       <c r="F494" t="n">
-        <v>198.0422515869141</v>
+        <v>0.3536468778337751</v>
       </c>
       <c r="G494" t="b">
         <v>0</v>
@@ -14786,10 +14786,10 @@
         <v>54995</v>
       </c>
       <c r="E495" t="n">
-        <v>-195.2525329589844</v>
+        <v>-0.3486652374267578</v>
       </c>
       <c r="F495" t="n">
-        <v>200.6899566650391</v>
+        <v>0.3583749226161412</v>
       </c>
       <c r="G495" t="b">
         <v>0</v>
@@ -14815,10 +14815,10 @@
         <v>55112</v>
       </c>
       <c r="E496" t="n">
-        <v>-191.9773559570312</v>
+        <v>-0.3428167070661272</v>
       </c>
       <c r="F496" t="n">
-        <v>203.8251800537109</v>
+        <v>0.3639735358101981</v>
       </c>
       <c r="G496" t="b">
         <v>0</v>
@@ -14844,10 +14844,10 @@
         <v>55229</v>
       </c>
       <c r="E497" t="n">
-        <v>-188.5262451171875</v>
+        <v>-0.3366540091378348</v>
       </c>
       <c r="F497" t="n">
-        <v>207.0213623046875</v>
+        <v>0.3696810041155134</v>
       </c>
       <c r="G497" t="b">
         <v>0</v>
@@ -14873,10 +14873,10 @@
         <v>55345</v>
       </c>
       <c r="E498" t="n">
-        <v>-185.0449829101562</v>
+        <v>-0.3304374694824219</v>
       </c>
       <c r="F498" t="n">
-        <v>210.1388854980469</v>
+        <v>0.3752480098179409</v>
       </c>
       <c r="G498" t="b">
         <v>0</v>
@@ -14902,10 +14902,10 @@
         <v>55446</v>
       </c>
       <c r="E499" t="n">
-        <v>-182.0742645263672</v>
+        <v>-0.3251326152256557</v>
       </c>
       <c r="F499" t="n">
-        <v>212.7180328369141</v>
+        <v>0.379853630065918</v>
       </c>
       <c r="G499" t="b">
         <v>0</v>
@@ -14931,10 +14931,10 @@
         <v>55563</v>
       </c>
       <c r="E500" t="n">
-        <v>-178.6275939941406</v>
+        <v>-0.3189778464181083</v>
       </c>
       <c r="F500" t="n">
-        <v>215.6204528808594</v>
+        <v>0.3850365230015346</v>
       </c>
       <c r="G500" t="b">
         <v>0</v>
@@ -14960,10 +14960,10 @@
         <v>55679</v>
       </c>
       <c r="E501" t="n">
-        <v>-175.2125549316406</v>
+        <v>-0.3128795623779297</v>
       </c>
       <c r="F501" t="n">
-        <v>218.4045715332031</v>
+        <v>0.3900081634521484</v>
       </c>
       <c r="G501" t="b">
         <v>0</v>
@@ -14989,10 +14989,10 @@
         <v>55780</v>
       </c>
       <c r="E502" t="n">
-        <v>-172.2081756591797</v>
+        <v>-0.3075145993913923</v>
       </c>
       <c r="F502" t="n">
-        <v>220.7812347412109</v>
+        <v>0.3942522048950196</v>
       </c>
       <c r="G502" t="b">
         <v>0</v>
@@ -15018,10 +15018,10 @@
         <v>55897</v>
       </c>
       <c r="E503" t="n">
-        <v>-168.5214538574219</v>
+        <v>-0.3009311676025391</v>
       </c>
       <c r="F503" t="n">
-        <v>223.6079711914062</v>
+        <v>0.3992999485560826</v>
       </c>
       <c r="G503" t="b">
         <v>0</v>
@@ -15047,10 +15047,10 @@
         <v>56013</v>
       </c>
       <c r="E504" t="n">
-        <v>-164.7806091308594</v>
+        <v>-0.2942510877336775</v>
       </c>
       <c r="F504" t="n">
-        <v>226.3787994384766</v>
+        <v>0.4042478561401367</v>
       </c>
       <c r="G504" t="b">
         <v>0</v>
@@ -15076,10 +15076,10 @@
         <v>56114</v>
       </c>
       <c r="E505" t="n">
-        <v>-161.5995788574219</v>
+        <v>-0.2885706765311105</v>
       </c>
       <c r="F505" t="n">
-        <v>228.6603851318359</v>
+        <v>0.4083221163068499</v>
       </c>
       <c r="G505" t="b">
         <v>0</v>
@@ -15105,10 +15105,10 @@
         <v>56231</v>
       </c>
       <c r="E506" t="n">
-        <v>-157.9302520751953</v>
+        <v>-0.2820183072771345</v>
       </c>
       <c r="F506" t="n">
-        <v>231.2099304199219</v>
+        <v>0.4128748757498605</v>
       </c>
       <c r="G506" t="b">
         <v>0</v>
@@ -15134,10 +15134,10 @@
         <v>56347</v>
       </c>
       <c r="E507" t="n">
-        <v>-154.2413940429688</v>
+        <v>-0.2754310607910156</v>
       </c>
       <c r="F507" t="n">
-        <v>233.6869201660156</v>
+        <v>0.4172980717250279</v>
       </c>
       <c r="G507" t="b">
         <v>0</v>
@@ -15163,10 +15163,10 @@
         <v>56448</v>
       </c>
       <c r="E508" t="n">
-        <v>-150.9208831787109</v>
+        <v>-0.269501577104841</v>
       </c>
       <c r="F508" t="n">
-        <v>235.8450622558594</v>
+        <v>0.4211518968854632</v>
       </c>
       <c r="G508" t="b">
         <v>0</v>
@@ -15192,10 +15192,10 @@
         <v>56565</v>
       </c>
       <c r="E509" t="n">
-        <v>-146.8871765136719</v>
+        <v>-0.2622985294886997</v>
       </c>
       <c r="F509" t="n">
-        <v>238.378173828125</v>
+        <v>0.4256753104073661</v>
       </c>
       <c r="G509" t="b">
         <v>0</v>
@@ -15221,10 +15221,10 @@
         <v>56681</v>
       </c>
       <c r="E510" t="n">
-        <v>-142.2851867675781</v>
+        <v>-0.2540806906563895</v>
       </c>
       <c r="F510" t="n">
-        <v>241.1533355712891</v>
+        <v>0.4306309563773019</v>
       </c>
       <c r="G510" t="b">
         <v>0</v>
@@ -15250,10 +15250,10 @@
         <v>56782</v>
       </c>
       <c r="E511" t="n">
-        <v>-138.8634796142578</v>
+        <v>-0.2479704993111747</v>
       </c>
       <c r="F511" t="n">
-        <v>243.1397399902344</v>
+        <v>0.4341781071254185</v>
       </c>
       <c r="G511" t="b">
         <v>0</v>
@@ -15279,10 +15279,10 @@
         <v>56899</v>
       </c>
       <c r="E512" t="n">
-        <v>-134.7306976318359</v>
+        <v>-0.2405905314854213</v>
       </c>
       <c r="F512" t="n">
-        <v>245.4539642333984</v>
+        <v>0.4383106504167829</v>
       </c>
       <c r="G512" t="b">
         <v>0</v>
@@ -15308,10 +15308,10 @@
         <v>57015</v>
       </c>
       <c r="E513" t="n">
-        <v>-130.4187927246094</v>
+        <v>-0.2328907012939453</v>
       </c>
       <c r="F513" t="n">
-        <v>247.7719421386719</v>
+        <v>0.4424498966761998</v>
       </c>
       <c r="G513" t="b">
         <v>0</v>
@@ -15337,10 +15337,10 @@
         <v>57116</v>
       </c>
       <c r="E514" t="n">
-        <v>-126.6572570800781</v>
+        <v>-0.2261736733572824</v>
       </c>
       <c r="F514" t="n">
-        <v>249.7157135009766</v>
+        <v>0.4459209169660296</v>
       </c>
       <c r="G514" t="b">
         <v>0</v>
@@ -15366,10 +15366,10 @@
         <v>57233</v>
       </c>
       <c r="E515" t="n">
-        <v>-122.3200225830078</v>
+        <v>-0.2184286117553711</v>
       </c>
       <c r="F515" t="n">
-        <v>251.86865234375</v>
+        <v>0.4497654506138393</v>
       </c>
       <c r="G515" t="b">
         <v>0</v>
@@ -15395,10 +15395,10 @@
         <v>57350</v>
       </c>
       <c r="E516" t="n">
-        <v>-118.046501159668</v>
+        <v>-0.2107973234994071</v>
       </c>
       <c r="F516" t="n">
-        <v>253.8996124267578</v>
+        <v>0.4533921650477818</v>
       </c>
       <c r="G516" t="b">
         <v>0</v>
@@ -15424,10 +15424,10 @@
         <v>57466</v>
       </c>
       <c r="E517" t="n">
-        <v>-113.8605651855469</v>
+        <v>-0.2033224378313337</v>
       </c>
       <c r="F517" t="n">
-        <v>255.8041534423828</v>
+        <v>0.4567931311471122</v>
       </c>
       <c r="G517" t="b">
         <v>0</v>
@@ -15453,10 +15453,10 @@
         <v>57567</v>
       </c>
       <c r="E518" t="n">
-        <v>-110.3652420043945</v>
+        <v>-0.1970807892935617</v>
       </c>
       <c r="F518" t="n">
-        <v>257.3315124511719</v>
+        <v>0.4595205579485212</v>
       </c>
       <c r="G518" t="b">
         <v>0</v>
@@ -15482,10 +15482,10 @@
         <v>57684</v>
       </c>
       <c r="E519" t="n">
-        <v>-106.3907012939453</v>
+        <v>-0.1899833951677595</v>
       </c>
       <c r="F519" t="n">
-        <v>259.0000305175781</v>
+        <v>0.4625000544956752</v>
       </c>
       <c r="G519" t="b">
         <v>0</v>
@@ -15511,10 +15511,10 @@
         <v>57800</v>
       </c>
       <c r="E520" t="n">
-        <v>-102.558708190918</v>
+        <v>-0.1831405503409249</v>
       </c>
       <c r="F520" t="n">
-        <v>260.5411987304688</v>
+        <v>0.4652521405901228</v>
       </c>
       <c r="G520" t="b">
         <v>0</v>
@@ -15540,10 +15540,10 @@
         <v>57901</v>
       </c>
       <c r="E521" t="n">
-        <v>-99.38972473144531</v>
+        <v>-0.1774816513061523</v>
       </c>
       <c r="F521" t="n">
-        <v>261.7664489746094</v>
+        <v>0.4674400874546596</v>
       </c>
       <c r="G521" t="b">
         <v>0</v>
@@ -15569,10 +15569,10 @@
         <v>58018</v>
       </c>
       <c r="E522" t="n">
-        <v>-95.80564117431641</v>
+        <v>-0.1710815020969936</v>
       </c>
       <c r="F522" t="n">
-        <v>263.099365234375</v>
+        <v>0.469820295061384</v>
       </c>
       <c r="G522" t="b">
         <v>0</v>
@@ -15598,10 +15598,10 @@
         <v>58134</v>
       </c>
       <c r="E523" t="n">
-        <v>-92.02267456054688</v>
+        <v>-0.1643262045724051</v>
       </c>
       <c r="F523" t="n">
-        <v>264.4462585449219</v>
+        <v>0.4722254616873605</v>
       </c>
       <c r="G523" t="b">
         <v>0</v>
@@ -15627,10 +15627,10 @@
         <v>58235</v>
       </c>
       <c r="E524" t="n">
-        <v>-88.58512115478516</v>
+        <v>-0.1581877163478306</v>
       </c>
       <c r="F524" t="n">
-        <v>265.6175537109375</v>
+        <v>0.4743170601981027</v>
       </c>
       <c r="G524" t="b">
         <v>0</v>
@@ -15656,10 +15656,10 @@
         <v>58352</v>
       </c>
       <c r="E525" t="n">
-        <v>-84.61846923828125</v>
+        <v>-0.1511044093540737</v>
       </c>
       <c r="F525" t="n">
-        <v>266.9076843261719</v>
+        <v>0.4766208648681641</v>
       </c>
       <c r="G525" t="b">
         <v>0</v>
@@ -15685,10 +15685,10 @@
         <v>58468</v>
       </c>
       <c r="E526" t="n">
-        <v>-80.54206085205078</v>
+        <v>-0.1438251086643764</v>
       </c>
       <c r="F526" t="n">
-        <v>268.1659240722656</v>
+        <v>0.4788677215576172</v>
       </c>
       <c r="G526" t="b">
         <v>0</v>
@@ -15714,10 +15714,10 @@
         <v>58569</v>
       </c>
       <c r="E527" t="n">
-        <v>-76.95272827148438</v>
+        <v>-0.1374155861990792</v>
       </c>
       <c r="F527" t="n">
-        <v>269.2178955078125</v>
+        <v>0.4807462419782366</v>
       </c>
       <c r="G527" t="b">
         <v>0</v>
@@ -15743,10 +15743,10 @@
         <v>58686</v>
       </c>
       <c r="E528" t="n">
-        <v>-72.89114379882812</v>
+        <v>-0.1301627567836217</v>
       </c>
       <c r="F528" t="n">
-        <v>270.3458557128906</v>
+        <v>0.4827604566301618</v>
       </c>
       <c r="G528" t="b">
         <v>0</v>
@@ -15772,10 +15772,10 @@
         <v>58802</v>
       </c>
       <c r="E529" t="n">
-        <v>-68.77698516845703</v>
+        <v>-0.1228160449436733</v>
       </c>
       <c r="F529" t="n">
-        <v>271.4216918945312</v>
+        <v>0.4846815926688058</v>
       </c>
       <c r="G529" t="b">
         <v>0</v>
@@ -15801,10 +15801,10 @@
         <v>58903</v>
       </c>
       <c r="E530" t="n">
-        <v>-65.06601715087891</v>
+        <v>-0.1161893163408552</v>
       </c>
       <c r="F530" t="n">
-        <v>272.3351135253906</v>
+        <v>0.4863127027239118</v>
       </c>
       <c r="G530" t="b">
         <v>0</v>
@@ -15830,10 +15830,10 @@
         <v>59020</v>
       </c>
       <c r="E531" t="n">
-        <v>-60.7404670715332</v>
+        <v>-0.108465119770595</v>
       </c>
       <c r="F531" t="n">
-        <v>273.3323974609375</v>
+        <v>0.4880935668945313</v>
       </c>
       <c r="G531" t="b">
         <v>0</v>
@@ -15859,10 +15859,10 @@
         <v>59136</v>
       </c>
       <c r="E532" t="n">
-        <v>-56.56631469726562</v>
+        <v>-0.1010112762451172</v>
       </c>
       <c r="F532" t="n">
-        <v>274.2266540527344</v>
+        <v>0.4896904536655971</v>
       </c>
       <c r="G532" t="b">
         <v>0</v>
@@ -15888,10 +15888,10 @@
         <v>59237</v>
       </c>
       <c r="E533" t="n">
-        <v>-53.11121368408203</v>
+        <v>-0.09484145300728934</v>
       </c>
       <c r="F533" t="n">
-        <v>274.9167175292969</v>
+        <v>0.4909227098737444</v>
       </c>
       <c r="G533" t="b">
         <v>0</v>
@@ -15917,10 +15917,10 @@
         <v>59354</v>
       </c>
       <c r="E534" t="n">
-        <v>-49.2303466796875</v>
+        <v>-0.08791133335658483</v>
       </c>
       <c r="F534" t="n">
-        <v>275.6381225585938</v>
+        <v>0.492210933140346</v>
       </c>
       <c r="G534" t="b">
         <v>0</v>
@@ -15946,10 +15946,10 @@
         <v>59470</v>
       </c>
       <c r="E535" t="n">
-        <v>-45.41677474975586</v>
+        <v>-0.0811013834817069</v>
       </c>
       <c r="F535" t="n">
-        <v>276.2920837402344</v>
+        <v>0.4933787209647043</v>
       </c>
       <c r="G535" t="b">
         <v>0</v>
@@ -15975,10 +15975,10 @@
         <v>59571</v>
       </c>
       <c r="E536" t="n">
-        <v>-43.14459609985352</v>
+        <v>-0.07704392160688128</v>
       </c>
       <c r="F536" t="n">
-        <v>276.656005859375</v>
+        <v>0.4940285818917411</v>
       </c>
       <c r="G536" t="b">
         <v>0</v>
@@ -16004,10 +16004,10 @@
         <v>59688</v>
       </c>
       <c r="E537" t="n">
-        <v>-41.11850738525391</v>
+        <v>-0.07342590604509626</v>
       </c>
       <c r="F537" t="n">
-        <v>276.9643859863281</v>
+        <v>0.4945792606898716</v>
       </c>
       <c r="G537" t="b">
         <v>0</v>
@@ -16033,10 +16033,10 @@
         <v>59805</v>
       </c>
       <c r="E538" t="n">
-        <v>-41.11850738525391</v>
+        <v>-0.07342590604509626</v>
       </c>
       <c r="F538" t="n">
-        <v>276.9643859863281</v>
+        <v>0.4945792606898716</v>
       </c>
       <c r="G538" t="b">
         <v>0</v>
@@ -16062,10 +16062,10 @@
         <v>59921</v>
       </c>
       <c r="E539" t="n">
-        <v>-41.11850738525391</v>
+        <v>-0.07342590604509626</v>
       </c>
       <c r="F539" t="n">
-        <v>276.9643859863281</v>
+        <v>0.4945792606898716</v>
       </c>
       <c r="G539" t="b">
         <v>0</v>
@@ -16094,7 +16094,7 @@
         <v>0</v>
       </c>
       <c r="F540" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G540" t="b">
         <v>0</v>
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="F541" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G541" t="b">
         <v>0</v>
@@ -16152,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="F542" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G542" t="b">
         <v>0</v>
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="F543" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G543" t="b">
         <v>0</v>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="F544" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G544" t="b">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="F545" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G545" t="b">
         <v>0</v>
@@ -16268,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="F546" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G546" t="b">
         <v>0</v>
@@ -16297,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="F547" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G547" t="b">
         <v>0</v>
@@ -16326,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="F548" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G548" t="b">
         <v>0</v>
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="F549" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G549" t="b">
         <v>0</v>
@@ -16384,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="F550" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G550" t="b">
         <v>0</v>
@@ -16413,7 +16413,7 @@
         <v>0</v>
       </c>
       <c r="F551" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G551" t="b">
         <v>0</v>
@@ -16442,7 +16442,7 @@
         <v>0</v>
       </c>
       <c r="F552" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G552" t="b">
         <v>0</v>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="F553" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G553" t="b">
         <v>0</v>
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="F554" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G554" t="b">
         <v>0</v>
@@ -16529,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G555" t="b">
         <v>0</v>
@@ -16558,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G556" t="b">
         <v>0</v>
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G557" t="b">
         <v>0</v>
@@ -16616,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G558" t="b">
         <v>0</v>
@@ -16645,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G559" t="b">
         <v>0</v>
@@ -16674,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G560" t="b">
         <v>0</v>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="F561" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G561" t="b">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="F562" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G562" t="b">
         <v>0</v>
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="F563" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G563" t="b">
         <v>0</v>
@@ -16790,7 +16790,7 @@
         <v>0</v>
       </c>
       <c r="F564" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G564" t="b">
         <v>0</v>
@@ -16819,7 +16819,7 @@
         <v>0</v>
       </c>
       <c r="F565" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G565" t="b">
         <v>0</v>
@@ -16848,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="F566" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G566" t="b">
         <v>0</v>
@@ -16877,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="F567" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G567" t="b">
         <v>0</v>
@@ -16906,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="F568" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G568" t="b">
         <v>0</v>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="F569" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G569" t="b">
         <v>0</v>
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="F570" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G570" t="b">
         <v>0</v>
@@ -16993,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="F571" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G571" t="b">
         <v>0</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="F572" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G572" t="b">
         <v>0</v>
@@ -17051,7 +17051,7 @@
         <v>0</v>
       </c>
       <c r="F573" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G573" t="b">
         <v>0</v>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="F574" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G574" t="b">
         <v>0</v>
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="F575" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G575" t="b">
         <v>0</v>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="F576" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G576" t="b">
         <v>0</v>
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="F577" t="n">
-        <v>-150</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="G577" t="b">
         <v>0</v>
